--- a/2-CSS/Dars/CSS_Corin.xlsx
+++ b/2-CSS/Dars/CSS_Corin.xlsx
@@ -3583,6 +3583,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3598,6 +3601,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3607,37 +3616,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3657,9 +3660,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -16495,8 +16495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:I485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="L101" sqref="L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16559,22 +16559,22 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="21.75" thickBot="1">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="88" t="s">
         <v>634</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
     </row>
     <row r="8" spans="2:9" ht="42" customHeight="1">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="10"/>
@@ -16585,8 +16585,8 @@
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="2:9" ht="34.5" customHeight="1">
-      <c r="B9" s="90"/>
-      <c r="C9" s="93"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
@@ -16711,7 +16711,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" s="54" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="99" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="95" t="s">
@@ -16729,15 +16729,15 @@
       <c r="G14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="96" t="s">
+      <c r="H14" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="97" t="s">
+      <c r="I14" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="54" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B15" s="94"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="95"/>
       <c r="D15" s="25" t="s">
         <v>2</v>
@@ -16751,11 +16751,11 @@
       <c r="G15" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="96"/>
-      <c r="I15" s="97"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="94"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="95"/>
       <c r="D16" s="25" t="s">
         <v>43</v>
@@ -16769,8 +16769,8 @@
       <c r="G16" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="96"/>
-      <c r="I16" s="97"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="2:9" ht="17.25" customHeight="1">
       <c r="B17" s="55" t="s">
@@ -16903,19 +16903,19 @@
       </c>
     </row>
     <row r="22" spans="2:9" s="54" customFormat="1" ht="21.75" thickBot="1">
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="88" t="s">
         <v>635</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
     </row>
     <row r="23" spans="2:9" s="54" customFormat="1" ht="44.25" customHeight="1">
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="90" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="57"/>
@@ -16927,7 +16927,7 @@
       <c r="I23" s="57"/>
     </row>
     <row r="24" spans="2:9" s="54" customFormat="1" ht="21">
-      <c r="B24" s="90"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="57"/>
       <c r="D24" s="12" t="s">
         <v>12</v>
@@ -17999,22 +17999,22 @@
       </c>
     </row>
     <row r="73" spans="2:9" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B73" s="91" t="s">
+      <c r="B73" s="92" t="s">
         <v>636</v>
       </c>
-      <c r="C73" s="91"/>
-      <c r="D73" s="91"/>
-      <c r="E73" s="91"/>
-      <c r="F73" s="91"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="91"/>
-      <c r="I73" s="91"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="92"/>
     </row>
     <row r="74" spans="2:9" ht="45.75" customHeight="1">
-      <c r="B74" s="89" t="s">
+      <c r="B74" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="92" t="s">
+      <c r="C74" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="10"/>
@@ -18025,8 +18025,8 @@
       <c r="I74" s="11"/>
     </row>
     <row r="75" spans="2:9" ht="39.75" customHeight="1">
-      <c r="B75" s="90"/>
-      <c r="C75" s="93"/>
+      <c r="B75" s="91"/>
+      <c r="C75" s="98"/>
       <c r="D75" s="12" t="s">
         <v>12</v>
       </c>
@@ -18503,22 +18503,22 @@
       <c r="I96" s="120"/>
     </row>
     <row r="97" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B97" s="119" t="s">
+      <c r="B97" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="119"/>
-      <c r="D97" s="119"/>
-      <c r="E97" s="119"/>
-      <c r="F97" s="119"/>
-      <c r="G97" s="119"/>
-      <c r="H97" s="119"/>
-      <c r="I97" s="119"/>
+      <c r="C97" s="112"/>
+      <c r="D97" s="112"/>
+      <c r="E97" s="112"/>
+      <c r="F97" s="112"/>
+      <c r="G97" s="112"/>
+      <c r="H97" s="112"/>
+      <c r="I97" s="112"/>
     </row>
     <row r="98" spans="2:9" ht="39" customHeight="1">
-      <c r="B98" s="89" t="s">
+      <c r="B98" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="92" t="s">
+      <c r="C98" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D98" s="10"/>
@@ -18529,8 +18529,8 @@
       <c r="I98" s="11"/>
     </row>
     <row r="99" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B99" s="90"/>
-      <c r="C99" s="93"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="98"/>
       <c r="D99" s="12" t="s">
         <v>12</v>
       </c>
@@ -18629,7 +18629,7 @@
       </c>
     </row>
     <row r="103" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="86" t="s">
         <v>208</v>
       </c>
       <c r="C103" s="22" t="s">
@@ -18655,7 +18655,7 @@
       </c>
     </row>
     <row r="104" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B104" s="71" t="s">
+      <c r="B104" s="86" t="s">
         <v>192</v>
       </c>
       <c r="C104" s="27" t="s">
@@ -18681,7 +18681,7 @@
       </c>
     </row>
     <row r="105" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="86" t="s">
         <v>196</v>
       </c>
       <c r="C105" s="22" t="s">
@@ -18707,7 +18707,7 @@
       </c>
     </row>
     <row r="106" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="86" t="s">
         <v>210</v>
       </c>
       <c r="C106" s="27" t="s">
@@ -18733,22 +18733,22 @@
       </c>
     </row>
     <row r="107" spans="2:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B107" s="119" t="s">
+      <c r="B107" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="C107" s="119"/>
-      <c r="D107" s="119"/>
-      <c r="E107" s="119"/>
-      <c r="F107" s="119"/>
-      <c r="G107" s="119"/>
-      <c r="H107" s="119"/>
-      <c r="I107" s="119"/>
+      <c r="C107" s="112"/>
+      <c r="D107" s="112"/>
+      <c r="E107" s="112"/>
+      <c r="F107" s="112"/>
+      <c r="G107" s="112"/>
+      <c r="H107" s="112"/>
+      <c r="I107" s="112"/>
     </row>
     <row r="108" spans="2:9" ht="43.5" customHeight="1">
-      <c r="B108" s="89" t="s">
+      <c r="B108" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="92" t="s">
+      <c r="C108" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D108" s="10"/>
@@ -18759,8 +18759,8 @@
       <c r="I108" s="11"/>
     </row>
     <row r="109" spans="2:9" ht="23.25" customHeight="1">
-      <c r="B109" s="90"/>
-      <c r="C109" s="93"/>
+      <c r="B109" s="91"/>
+      <c r="C109" s="98"/>
       <c r="D109" s="12" t="s">
         <v>12</v>
       </c>
@@ -18937,19 +18937,19 @@
       </c>
     </row>
     <row r="116" spans="2:9" s="54" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B116" s="91" t="s">
+      <c r="B116" s="92" t="s">
         <v>637</v>
       </c>
-      <c r="C116" s="91"/>
-      <c r="D116" s="91"/>
-      <c r="E116" s="91"/>
-      <c r="F116" s="91"/>
-      <c r="G116" s="91"/>
-      <c r="H116" s="91"/>
-      <c r="I116" s="91"/>
+      <c r="C116" s="92"/>
+      <c r="D116" s="92"/>
+      <c r="E116" s="92"/>
+      <c r="F116" s="92"/>
+      <c r="G116" s="92"/>
+      <c r="H116" s="92"/>
+      <c r="I116" s="92"/>
     </row>
     <row r="117" spans="2:9" s="54" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B117" s="89" t="s">
+      <c r="B117" s="90" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="69"/>
@@ -18961,7 +18961,7 @@
       <c r="I117" s="69"/>
     </row>
     <row r="118" spans="2:9" s="54" customFormat="1" ht="24" customHeight="1">
-      <c r="B118" s="90"/>
+      <c r="B118" s="91"/>
       <c r="C118" s="69"/>
       <c r="D118" s="12" t="s">
         <v>12</v>
@@ -19402,22 +19402,22 @@
       </c>
     </row>
     <row r="139" spans="2:9" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B139" s="88" t="s">
+      <c r="B139" s="89" t="s">
         <v>638</v>
       </c>
-      <c r="C139" s="88"/>
-      <c r="D139" s="88"/>
-      <c r="E139" s="88"/>
-      <c r="F139" s="88"/>
-      <c r="G139" s="88"/>
-      <c r="H139" s="88"/>
-      <c r="I139" s="88"/>
+      <c r="C139" s="89"/>
+      <c r="D139" s="89"/>
+      <c r="E139" s="89"/>
+      <c r="F139" s="89"/>
+      <c r="G139" s="89"/>
+      <c r="H139" s="89"/>
+      <c r="I139" s="89"/>
     </row>
     <row r="140" spans="2:9" ht="42.75" customHeight="1">
-      <c r="B140" s="89" t="s">
+      <c r="B140" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C140" s="92" t="s">
+      <c r="C140" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="10"/>
@@ -19428,8 +19428,8 @@
       <c r="I140" s="11"/>
     </row>
     <row r="141" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B141" s="90"/>
-      <c r="C141" s="93"/>
+      <c r="B141" s="91"/>
+      <c r="C141" s="98"/>
       <c r="D141" s="12" t="s">
         <v>12</v>
       </c>
@@ -20234,22 +20234,22 @@
       </c>
     </row>
     <row r="174" spans="2:9" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B174" s="88" t="s">
+      <c r="B174" s="89" t="s">
         <v>466</v>
       </c>
-      <c r="C174" s="88"/>
-      <c r="D174" s="88"/>
-      <c r="E174" s="88"/>
-      <c r="F174" s="88"/>
-      <c r="G174" s="88"/>
-      <c r="H174" s="88"/>
-      <c r="I174" s="88"/>
+      <c r="C174" s="89"/>
+      <c r="D174" s="89"/>
+      <c r="E174" s="89"/>
+      <c r="F174" s="89"/>
+      <c r="G174" s="89"/>
+      <c r="H174" s="89"/>
+      <c r="I174" s="89"/>
     </row>
     <row r="175" spans="2:9" ht="43.5" customHeight="1">
-      <c r="B175" s="89" t="s">
+      <c r="B175" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C175" s="92" t="s">
+      <c r="C175" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D175" s="10"/>
@@ -20260,8 +20260,8 @@
       <c r="I175" s="11"/>
     </row>
     <row r="176" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B176" s="90"/>
-      <c r="C176" s="93"/>
+      <c r="B176" s="91"/>
+      <c r="C176" s="98"/>
       <c r="D176" s="12" t="s">
         <v>12</v>
       </c>
@@ -20412,22 +20412,22 @@
       </c>
     </row>
     <row r="182" spans="2:9" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B182" s="88" t="s">
+      <c r="B182" s="89" t="s">
         <v>450</v>
       </c>
-      <c r="C182" s="88"/>
-      <c r="D182" s="88"/>
-      <c r="E182" s="88"/>
-      <c r="F182" s="88"/>
-      <c r="G182" s="88"/>
-      <c r="H182" s="88"/>
-      <c r="I182" s="88"/>
+      <c r="C182" s="89"/>
+      <c r="D182" s="89"/>
+      <c r="E182" s="89"/>
+      <c r="F182" s="89"/>
+      <c r="G182" s="89"/>
+      <c r="H182" s="89"/>
+      <c r="I182" s="89"/>
     </row>
     <row r="183" spans="2:9" ht="40.5" customHeight="1">
-      <c r="B183" s="89" t="s">
+      <c r="B183" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C183" s="92" t="s">
+      <c r="C183" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D183" s="10"/>
@@ -20438,8 +20438,8 @@
       <c r="I183" s="11"/>
     </row>
     <row r="184" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B184" s="90"/>
-      <c r="C184" s="93"/>
+      <c r="B184" s="91"/>
+      <c r="C184" s="98"/>
       <c r="D184" s="12" t="s">
         <v>12</v>
       </c>
@@ -20638,22 +20638,22 @@
       <c r="I192" s="120"/>
     </row>
     <row r="193" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B193" s="119" t="s">
+      <c r="B193" s="112" t="s">
         <v>231</v>
       </c>
-      <c r="C193" s="119"/>
-      <c r="D193" s="119"/>
-      <c r="E193" s="119"/>
-      <c r="F193" s="119"/>
-      <c r="G193" s="119"/>
-      <c r="H193" s="119"/>
-      <c r="I193" s="119"/>
+      <c r="C193" s="112"/>
+      <c r="D193" s="112"/>
+      <c r="E193" s="112"/>
+      <c r="F193" s="112"/>
+      <c r="G193" s="112"/>
+      <c r="H193" s="112"/>
+      <c r="I193" s="112"/>
     </row>
     <row r="194" spans="2:9" ht="41.25" customHeight="1">
-      <c r="B194" s="89" t="s">
+      <c r="B194" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C194" s="92" t="s">
+      <c r="C194" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D194" s="10"/>
@@ -20664,8 +20664,8 @@
       <c r="I194" s="11"/>
     </row>
     <row r="195" spans="2:9">
-      <c r="B195" s="90"/>
-      <c r="C195" s="93"/>
+      <c r="B195" s="91"/>
+      <c r="C195" s="98"/>
       <c r="D195" s="12" t="s">
         <v>12</v>
       </c>
@@ -20686,22 +20686,22 @@
       </c>
     </row>
     <row r="196" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B196" s="98" t="s">
+      <c r="B196" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="C196" s="99" t="s">
+      <c r="C196" s="96" t="s">
         <v>193</v>
       </c>
-      <c r="D196" s="96" t="s">
+      <c r="D196" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E196" s="96" t="s">
+      <c r="E196" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F196" s="96" t="s">
+      <c r="F196" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G196" s="100">
+      <c r="G196" s="93">
         <v>45361</v>
       </c>
       <c r="H196" s="32" t="s">
@@ -20712,12 +20712,12 @@
       </c>
     </row>
     <row r="197" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B197" s="98"/>
-      <c r="C197" s="99"/>
-      <c r="D197" s="96"/>
-      <c r="E197" s="96"/>
-      <c r="F197" s="96"/>
-      <c r="G197" s="100"/>
+      <c r="B197" s="94"/>
+      <c r="C197" s="96"/>
+      <c r="D197" s="87"/>
+      <c r="E197" s="87"/>
+      <c r="F197" s="87"/>
+      <c r="G197" s="93"/>
       <c r="H197" s="32" t="s">
         <v>216</v>
       </c>
@@ -20726,34 +20726,34 @@
       </c>
     </row>
     <row r="198" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B198" s="98"/>
-      <c r="C198" s="99"/>
-      <c r="D198" s="96"/>
-      <c r="E198" s="96"/>
-      <c r="F198" s="96"/>
-      <c r="G198" s="100"/>
+      <c r="B198" s="94"/>
+      <c r="C198" s="96"/>
+      <c r="D198" s="87"/>
+      <c r="E198" s="87"/>
+      <c r="F198" s="87"/>
+      <c r="G198" s="93"/>
       <c r="H198" s="32"/>
       <c r="I198" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="199" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B199" s="98" t="s">
+      <c r="B199" s="94" t="s">
         <v>196</v>
       </c>
       <c r="C199" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="D199" s="96" t="s">
+      <c r="D199" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E199" s="96" t="s">
+      <c r="E199" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F199" s="96" t="s">
+      <c r="F199" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G199" s="100">
+      <c r="G199" s="93">
         <v>45361</v>
       </c>
       <c r="H199" s="36" t="s">
@@ -20764,12 +20764,12 @@
       </c>
     </row>
     <row r="200" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B200" s="98"/>
+      <c r="B200" s="94"/>
       <c r="C200" s="95"/>
-      <c r="D200" s="96"/>
-      <c r="E200" s="96"/>
-      <c r="F200" s="96"/>
-      <c r="G200" s="100"/>
+      <c r="D200" s="87"/>
+      <c r="E200" s="87"/>
+      <c r="F200" s="87"/>
+      <c r="G200" s="93"/>
       <c r="H200" s="36" t="s">
         <v>216</v>
       </c>
@@ -20778,34 +20778,34 @@
       </c>
     </row>
     <row r="201" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B201" s="98"/>
+      <c r="B201" s="94"/>
       <c r="C201" s="95"/>
-      <c r="D201" s="96"/>
-      <c r="E201" s="96"/>
-      <c r="F201" s="96"/>
-      <c r="G201" s="100"/>
+      <c r="D201" s="87"/>
+      <c r="E201" s="87"/>
+      <c r="F201" s="87"/>
+      <c r="G201" s="93"/>
       <c r="H201" s="36"/>
       <c r="I201" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="202" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B202" s="98" t="s">
+      <c r="B202" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="C202" s="99" t="s">
+      <c r="C202" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="D202" s="96" t="s">
+      <c r="D202" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E202" s="96" t="s">
+      <c r="E202" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F202" s="96" t="s">
+      <c r="F202" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G202" s="100">
+      <c r="G202" s="93">
         <v>45361</v>
       </c>
       <c r="H202" s="32" t="s">
@@ -20816,12 +20816,12 @@
       </c>
     </row>
     <row r="203" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B203" s="98"/>
-      <c r="C203" s="99"/>
-      <c r="D203" s="96"/>
-      <c r="E203" s="96"/>
-      <c r="F203" s="96"/>
-      <c r="G203" s="100"/>
+      <c r="B203" s="94"/>
+      <c r="C203" s="96"/>
+      <c r="D203" s="87"/>
+      <c r="E203" s="87"/>
+      <c r="F203" s="87"/>
+      <c r="G203" s="93"/>
       <c r="H203" s="32" t="s">
         <v>216</v>
       </c>
@@ -20830,34 +20830,34 @@
       </c>
     </row>
     <row r="204" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B204" s="98"/>
-      <c r="C204" s="99"/>
-      <c r="D204" s="96"/>
-      <c r="E204" s="96"/>
-      <c r="F204" s="96"/>
-      <c r="G204" s="100"/>
+      <c r="B204" s="94"/>
+      <c r="C204" s="96"/>
+      <c r="D204" s="87"/>
+      <c r="E204" s="87"/>
+      <c r="F204" s="87"/>
+      <c r="G204" s="93"/>
       <c r="H204" s="32"/>
       <c r="I204" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="205" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B205" s="98" t="s">
+      <c r="B205" s="94" t="s">
         <v>235</v>
       </c>
       <c r="C205" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="D205" s="96" t="s">
+      <c r="D205" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E205" s="96" t="s">
+      <c r="E205" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F205" s="96" t="s">
+      <c r="F205" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G205" s="100">
+      <c r="G205" s="93">
         <v>45361</v>
       </c>
       <c r="H205" s="36" t="s">
@@ -20868,12 +20868,12 @@
       </c>
     </row>
     <row r="206" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B206" s="98"/>
+      <c r="B206" s="94"/>
       <c r="C206" s="95"/>
-      <c r="D206" s="96"/>
-      <c r="E206" s="96"/>
-      <c r="F206" s="96"/>
-      <c r="G206" s="100"/>
+      <c r="D206" s="87"/>
+      <c r="E206" s="87"/>
+      <c r="F206" s="87"/>
+      <c r="G206" s="93"/>
       <c r="H206" s="36" t="s">
         <v>216</v>
       </c>
@@ -20882,34 +20882,34 @@
       </c>
     </row>
     <row r="207" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B207" s="98"/>
+      <c r="B207" s="94"/>
       <c r="C207" s="95"/>
-      <c r="D207" s="96"/>
-      <c r="E207" s="96"/>
-      <c r="F207" s="96"/>
-      <c r="G207" s="100"/>
+      <c r="D207" s="87"/>
+      <c r="E207" s="87"/>
+      <c r="F207" s="87"/>
+      <c r="G207" s="93"/>
       <c r="H207" s="36"/>
       <c r="I207" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="208" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B208" s="98" t="s">
+      <c r="B208" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="C208" s="99" t="s">
+      <c r="C208" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="D208" s="96" t="s">
+      <c r="D208" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E208" s="96" t="s">
+      <c r="E208" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F208" s="96" t="s">
+      <c r="F208" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G208" s="100">
+      <c r="G208" s="93">
         <v>45361</v>
       </c>
       <c r="H208" s="32" t="s">
@@ -20920,12 +20920,12 @@
       </c>
     </row>
     <row r="209" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B209" s="98"/>
-      <c r="C209" s="99"/>
-      <c r="D209" s="96"/>
-      <c r="E209" s="96"/>
-      <c r="F209" s="96"/>
-      <c r="G209" s="100"/>
+      <c r="B209" s="94"/>
+      <c r="C209" s="96"/>
+      <c r="D209" s="87"/>
+      <c r="E209" s="87"/>
+      <c r="F209" s="87"/>
+      <c r="G209" s="93"/>
       <c r="H209" s="32" t="s">
         <v>216</v>
       </c>
@@ -20934,34 +20934,34 @@
       </c>
     </row>
     <row r="210" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B210" s="98"/>
-      <c r="C210" s="99"/>
-      <c r="D210" s="96"/>
-      <c r="E210" s="96"/>
-      <c r="F210" s="96"/>
-      <c r="G210" s="100"/>
+      <c r="B210" s="94"/>
+      <c r="C210" s="96"/>
+      <c r="D210" s="87"/>
+      <c r="E210" s="87"/>
+      <c r="F210" s="87"/>
+      <c r="G210" s="93"/>
       <c r="H210" s="32"/>
       <c r="I210" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="211" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B211" s="98" t="s">
+      <c r="B211" s="94" t="s">
         <v>239</v>
       </c>
       <c r="C211" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="D211" s="96" t="s">
+      <c r="D211" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E211" s="96" t="s">
+      <c r="E211" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F211" s="96" t="s">
+      <c r="F211" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G211" s="100">
+      <c r="G211" s="93">
         <v>45361</v>
       </c>
       <c r="H211" s="36" t="s">
@@ -20972,12 +20972,12 @@
       </c>
     </row>
     <row r="212" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B212" s="98"/>
+      <c r="B212" s="94"/>
       <c r="C212" s="95"/>
-      <c r="D212" s="96"/>
-      <c r="E212" s="96"/>
-      <c r="F212" s="96"/>
-      <c r="G212" s="100"/>
+      <c r="D212" s="87"/>
+      <c r="E212" s="87"/>
+      <c r="F212" s="87"/>
+      <c r="G212" s="93"/>
       <c r="H212" s="36" t="s">
         <v>216</v>
       </c>
@@ -20986,34 +20986,34 @@
       </c>
     </row>
     <row r="213" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B213" s="98"/>
+      <c r="B213" s="94"/>
       <c r="C213" s="95"/>
-      <c r="D213" s="96"/>
-      <c r="E213" s="96"/>
-      <c r="F213" s="96"/>
-      <c r="G213" s="100"/>
+      <c r="D213" s="87"/>
+      <c r="E213" s="87"/>
+      <c r="F213" s="87"/>
+      <c r="G213" s="93"/>
       <c r="H213" s="36"/>
       <c r="I213" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="214" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B214" s="98" t="s">
+      <c r="B214" s="94" t="s">
         <v>241</v>
       </c>
-      <c r="C214" s="99" t="s">
+      <c r="C214" s="96" t="s">
         <v>242</v>
       </c>
-      <c r="D214" s="96" t="s">
+      <c r="D214" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E214" s="96" t="s">
+      <c r="E214" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F214" s="96" t="s">
+      <c r="F214" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G214" s="100">
+      <c r="G214" s="93">
         <v>45361</v>
       </c>
       <c r="H214" s="32" t="s">
@@ -21024,12 +21024,12 @@
       </c>
     </row>
     <row r="215" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B215" s="98"/>
-      <c r="C215" s="99"/>
-      <c r="D215" s="96"/>
-      <c r="E215" s="96"/>
-      <c r="F215" s="96"/>
-      <c r="G215" s="100"/>
+      <c r="B215" s="94"/>
+      <c r="C215" s="96"/>
+      <c r="D215" s="87"/>
+      <c r="E215" s="87"/>
+      <c r="F215" s="87"/>
+      <c r="G215" s="93"/>
       <c r="H215" s="32" t="s">
         <v>216</v>
       </c>
@@ -21038,34 +21038,34 @@
       </c>
     </row>
     <row r="216" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B216" s="98"/>
-      <c r="C216" s="99"/>
-      <c r="D216" s="96"/>
-      <c r="E216" s="96"/>
-      <c r="F216" s="96"/>
-      <c r="G216" s="100"/>
+      <c r="B216" s="94"/>
+      <c r="C216" s="96"/>
+      <c r="D216" s="87"/>
+      <c r="E216" s="87"/>
+      <c r="F216" s="87"/>
+      <c r="G216" s="93"/>
       <c r="H216" s="32"/>
       <c r="I216" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="217" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B217" s="98" t="s">
+      <c r="B217" s="94" t="s">
         <v>243</v>
       </c>
       <c r="C217" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="D217" s="96" t="s">
+      <c r="D217" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E217" s="96" t="s">
+      <c r="E217" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F217" s="96" t="s">
+      <c r="F217" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G217" s="100">
+      <c r="G217" s="93">
         <v>45361</v>
       </c>
       <c r="H217" s="36" t="s">
@@ -21076,12 +21076,12 @@
       </c>
     </row>
     <row r="218" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B218" s="98"/>
+      <c r="B218" s="94"/>
       <c r="C218" s="95"/>
-      <c r="D218" s="96"/>
-      <c r="E218" s="96"/>
-      <c r="F218" s="96"/>
-      <c r="G218" s="100"/>
+      <c r="D218" s="87"/>
+      <c r="E218" s="87"/>
+      <c r="F218" s="87"/>
+      <c r="G218" s="93"/>
       <c r="H218" s="36" t="s">
         <v>216</v>
       </c>
@@ -21090,34 +21090,34 @@
       </c>
     </row>
     <row r="219" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B219" s="98"/>
+      <c r="B219" s="94"/>
       <c r="C219" s="95"/>
-      <c r="D219" s="96"/>
-      <c r="E219" s="96"/>
-      <c r="F219" s="96"/>
-      <c r="G219" s="100"/>
+      <c r="D219" s="87"/>
+      <c r="E219" s="87"/>
+      <c r="F219" s="87"/>
+      <c r="G219" s="93"/>
       <c r="H219" s="36"/>
       <c r="I219" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="220" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B220" s="98" t="s">
+      <c r="B220" s="94" t="s">
         <v>245</v>
       </c>
-      <c r="C220" s="99" t="s">
+      <c r="C220" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="D220" s="96" t="s">
+      <c r="D220" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E220" s="96" t="s">
+      <c r="E220" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F220" s="96" t="s">
+      <c r="F220" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G220" s="100">
+      <c r="G220" s="93">
         <v>45361</v>
       </c>
       <c r="H220" s="32" t="s">
@@ -21128,12 +21128,12 @@
       </c>
     </row>
     <row r="221" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B221" s="98"/>
-      <c r="C221" s="99"/>
-      <c r="D221" s="96"/>
-      <c r="E221" s="96"/>
-      <c r="F221" s="96"/>
-      <c r="G221" s="100"/>
+      <c r="B221" s="94"/>
+      <c r="C221" s="96"/>
+      <c r="D221" s="87"/>
+      <c r="E221" s="87"/>
+      <c r="F221" s="87"/>
+      <c r="G221" s="93"/>
       <c r="H221" s="32" t="s">
         <v>216</v>
       </c>
@@ -21142,34 +21142,34 @@
       </c>
     </row>
     <row r="222" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B222" s="98"/>
-      <c r="C222" s="99"/>
-      <c r="D222" s="96"/>
-      <c r="E222" s="96"/>
-      <c r="F222" s="96"/>
-      <c r="G222" s="100"/>
+      <c r="B222" s="94"/>
+      <c r="C222" s="96"/>
+      <c r="D222" s="87"/>
+      <c r="E222" s="87"/>
+      <c r="F222" s="87"/>
+      <c r="G222" s="93"/>
       <c r="H222" s="32"/>
       <c r="I222" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="223" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B223" s="98" t="s">
+      <c r="B223" s="94" t="s">
         <v>247</v>
       </c>
       <c r="C223" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="D223" s="96" t="s">
+      <c r="D223" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E223" s="96" t="s">
+      <c r="E223" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F223" s="96" t="s">
+      <c r="F223" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G223" s="100">
+      <c r="G223" s="93">
         <v>45361</v>
       </c>
       <c r="H223" s="36" t="s">
@@ -21180,12 +21180,12 @@
       </c>
     </row>
     <row r="224" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B224" s="98"/>
+      <c r="B224" s="94"/>
       <c r="C224" s="95"/>
-      <c r="D224" s="96"/>
-      <c r="E224" s="96"/>
-      <c r="F224" s="96"/>
-      <c r="G224" s="100"/>
+      <c r="D224" s="87"/>
+      <c r="E224" s="87"/>
+      <c r="F224" s="87"/>
+      <c r="G224" s="93"/>
       <c r="H224" s="36" t="s">
         <v>216</v>
       </c>
@@ -21194,34 +21194,34 @@
       </c>
     </row>
     <row r="225" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B225" s="98"/>
+      <c r="B225" s="94"/>
       <c r="C225" s="95"/>
-      <c r="D225" s="96"/>
-      <c r="E225" s="96"/>
-      <c r="F225" s="96"/>
-      <c r="G225" s="100"/>
+      <c r="D225" s="87"/>
+      <c r="E225" s="87"/>
+      <c r="F225" s="87"/>
+      <c r="G225" s="93"/>
       <c r="H225" s="36"/>
       <c r="I225" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="226" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B226" s="98" t="s">
+      <c r="B226" s="94" t="s">
         <v>249</v>
       </c>
       <c r="C226" s="101" t="s">
         <v>250</v>
       </c>
-      <c r="D226" s="96" t="s">
+      <c r="D226" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E226" s="96" t="s">
+      <c r="E226" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F226" s="96" t="s">
+      <c r="F226" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G226" s="100">
+      <c r="G226" s="93">
         <v>45361</v>
       </c>
       <c r="H226" s="32" t="s">
@@ -21232,12 +21232,12 @@
       </c>
     </row>
     <row r="227" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B227" s="98"/>
+      <c r="B227" s="94"/>
       <c r="C227" s="101"/>
-      <c r="D227" s="96"/>
-      <c r="E227" s="96"/>
-      <c r="F227" s="96"/>
-      <c r="G227" s="100"/>
+      <c r="D227" s="87"/>
+      <c r="E227" s="87"/>
+      <c r="F227" s="87"/>
+      <c r="G227" s="93"/>
       <c r="H227" s="32" t="s">
         <v>216</v>
       </c>
@@ -21246,34 +21246,34 @@
       </c>
     </row>
     <row r="228" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B228" s="98"/>
+      <c r="B228" s="94"/>
       <c r="C228" s="101"/>
-      <c r="D228" s="96"/>
-      <c r="E228" s="96"/>
-      <c r="F228" s="96"/>
-      <c r="G228" s="100"/>
+      <c r="D228" s="87"/>
+      <c r="E228" s="87"/>
+      <c r="F228" s="87"/>
+      <c r="G228" s="93"/>
       <c r="H228" s="32"/>
       <c r="I228" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="229" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B229" s="98" t="s">
+      <c r="B229" s="94" t="s">
         <v>251</v>
       </c>
       <c r="C229" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="D229" s="96" t="s">
+      <c r="D229" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E229" s="96" t="s">
+      <c r="E229" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F229" s="96" t="s">
+      <c r="F229" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G229" s="100">
+      <c r="G229" s="93">
         <v>45361</v>
       </c>
       <c r="H229" s="36" t="s">
@@ -21284,12 +21284,12 @@
       </c>
     </row>
     <row r="230" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B230" s="98"/>
+      <c r="B230" s="94"/>
       <c r="C230" s="95"/>
-      <c r="D230" s="96"/>
-      <c r="E230" s="96"/>
-      <c r="F230" s="96"/>
-      <c r="G230" s="100"/>
+      <c r="D230" s="87"/>
+      <c r="E230" s="87"/>
+      <c r="F230" s="87"/>
+      <c r="G230" s="93"/>
       <c r="H230" s="36" t="s">
         <v>216</v>
       </c>
@@ -21298,34 +21298,34 @@
       </c>
     </row>
     <row r="231" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B231" s="98"/>
+      <c r="B231" s="94"/>
       <c r="C231" s="95"/>
-      <c r="D231" s="96"/>
-      <c r="E231" s="96"/>
-      <c r="F231" s="96"/>
-      <c r="G231" s="100"/>
+      <c r="D231" s="87"/>
+      <c r="E231" s="87"/>
+      <c r="F231" s="87"/>
+      <c r="G231" s="93"/>
       <c r="H231" s="36"/>
       <c r="I231" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="232" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B232" s="98" t="s">
+      <c r="B232" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="C232" s="99" t="s">
+      <c r="C232" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="D232" s="96" t="s">
+      <c r="D232" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E232" s="96" t="s">
+      <c r="E232" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F232" s="96" t="s">
+      <c r="F232" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G232" s="100">
+      <c r="G232" s="93">
         <v>45361</v>
       </c>
       <c r="H232" s="32" t="s">
@@ -21336,12 +21336,12 @@
       </c>
     </row>
     <row r="233" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B233" s="98"/>
-      <c r="C233" s="99"/>
-      <c r="D233" s="96"/>
-      <c r="E233" s="96"/>
-      <c r="F233" s="96"/>
-      <c r="G233" s="100"/>
+      <c r="B233" s="94"/>
+      <c r="C233" s="96"/>
+      <c r="D233" s="87"/>
+      <c r="E233" s="87"/>
+      <c r="F233" s="87"/>
+      <c r="G233" s="93"/>
       <c r="H233" s="32" t="s">
         <v>216</v>
       </c>
@@ -21350,34 +21350,34 @@
       </c>
     </row>
     <row r="234" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B234" s="98"/>
-      <c r="C234" s="99"/>
-      <c r="D234" s="96"/>
-      <c r="E234" s="96"/>
-      <c r="F234" s="96"/>
-      <c r="G234" s="100"/>
+      <c r="B234" s="94"/>
+      <c r="C234" s="96"/>
+      <c r="D234" s="87"/>
+      <c r="E234" s="87"/>
+      <c r="F234" s="87"/>
+      <c r="G234" s="93"/>
       <c r="H234" s="32"/>
       <c r="I234" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="235" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B235" s="98" t="s">
+      <c r="B235" s="94" t="s">
         <v>208</v>
       </c>
       <c r="C235" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="D235" s="96" t="s">
+      <c r="D235" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E235" s="96" t="s">
+      <c r="E235" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F235" s="96" t="s">
+      <c r="F235" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G235" s="100">
+      <c r="G235" s="93">
         <v>45361</v>
       </c>
       <c r="H235" s="36" t="s">
@@ -21388,12 +21388,12 @@
       </c>
     </row>
     <row r="236" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B236" s="98"/>
+      <c r="B236" s="94"/>
       <c r="C236" s="95"/>
-      <c r="D236" s="96"/>
-      <c r="E236" s="96"/>
-      <c r="F236" s="96"/>
-      <c r="G236" s="100"/>
+      <c r="D236" s="87"/>
+      <c r="E236" s="87"/>
+      <c r="F236" s="87"/>
+      <c r="G236" s="93"/>
       <c r="H236" s="36" t="s">
         <v>216</v>
       </c>
@@ -21402,34 +21402,34 @@
       </c>
     </row>
     <row r="237" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B237" s="98"/>
+      <c r="B237" s="94"/>
       <c r="C237" s="95"/>
-      <c r="D237" s="96"/>
-      <c r="E237" s="96"/>
-      <c r="F237" s="96"/>
-      <c r="G237" s="100"/>
+      <c r="D237" s="87"/>
+      <c r="E237" s="87"/>
+      <c r="F237" s="87"/>
+      <c r="G237" s="93"/>
       <c r="H237" s="36"/>
       <c r="I237" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="238" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B238" s="98" t="s">
+      <c r="B238" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="C238" s="99" t="s">
+      <c r="C238" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="D238" s="96" t="s">
+      <c r="D238" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E238" s="96" t="s">
+      <c r="E238" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F238" s="96" t="s">
+      <c r="F238" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G238" s="100">
+      <c r="G238" s="93">
         <v>45361</v>
       </c>
       <c r="H238" s="32" t="s">
@@ -21440,12 +21440,12 @@
       </c>
     </row>
     <row r="239" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B239" s="98"/>
-      <c r="C239" s="99"/>
-      <c r="D239" s="96"/>
-      <c r="E239" s="96"/>
-      <c r="F239" s="96"/>
-      <c r="G239" s="100"/>
+      <c r="B239" s="94"/>
+      <c r="C239" s="96"/>
+      <c r="D239" s="87"/>
+      <c r="E239" s="87"/>
+      <c r="F239" s="87"/>
+      <c r="G239" s="93"/>
       <c r="H239" s="32" t="s">
         <v>216</v>
       </c>
@@ -21454,34 +21454,34 @@
       </c>
     </row>
     <row r="240" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B240" s="98"/>
-      <c r="C240" s="99"/>
-      <c r="D240" s="96"/>
-      <c r="E240" s="96"/>
-      <c r="F240" s="96"/>
-      <c r="G240" s="100"/>
+      <c r="B240" s="94"/>
+      <c r="C240" s="96"/>
+      <c r="D240" s="87"/>
+      <c r="E240" s="87"/>
+      <c r="F240" s="87"/>
+      <c r="G240" s="93"/>
       <c r="H240" s="32"/>
       <c r="I240" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="241" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B241" s="98" t="s">
+      <c r="B241" s="94" t="s">
         <v>210</v>
       </c>
       <c r="C241" s="95" t="s">
         <v>211</v>
       </c>
-      <c r="D241" s="96" t="s">
+      <c r="D241" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E241" s="96" t="s">
+      <c r="E241" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F241" s="96" t="s">
+      <c r="F241" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G241" s="100">
+      <c r="G241" s="93">
         <v>45361</v>
       </c>
       <c r="H241" s="36" t="s">
@@ -21492,12 +21492,12 @@
       </c>
     </row>
     <row r="242" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B242" s="98"/>
+      <c r="B242" s="94"/>
       <c r="C242" s="95"/>
-      <c r="D242" s="96"/>
-      <c r="E242" s="96"/>
-      <c r="F242" s="96"/>
-      <c r="G242" s="100"/>
+      <c r="D242" s="87"/>
+      <c r="E242" s="87"/>
+      <c r="F242" s="87"/>
+      <c r="G242" s="93"/>
       <c r="H242" s="36" t="s">
         <v>216</v>
       </c>
@@ -21506,34 +21506,34 @@
       </c>
     </row>
     <row r="243" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B243" s="98"/>
+      <c r="B243" s="94"/>
       <c r="C243" s="95"/>
-      <c r="D243" s="96"/>
-      <c r="E243" s="96"/>
-      <c r="F243" s="96"/>
-      <c r="G243" s="100"/>
+      <c r="D243" s="87"/>
+      <c r="E243" s="87"/>
+      <c r="F243" s="87"/>
+      <c r="G243" s="93"/>
       <c r="H243" s="36"/>
       <c r="I243" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="244" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B244" s="98" t="s">
+      <c r="B244" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C244" s="99" t="s">
+      <c r="C244" s="96" t="s">
         <v>258</v>
       </c>
-      <c r="D244" s="96" t="s">
+      <c r="D244" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E244" s="96" t="s">
+      <c r="E244" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F244" s="96" t="s">
+      <c r="F244" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G244" s="100">
+      <c r="G244" s="93">
         <v>45361</v>
       </c>
       <c r="H244" s="32" t="s">
@@ -21544,12 +21544,12 @@
       </c>
     </row>
     <row r="245" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B245" s="98"/>
-      <c r="C245" s="99"/>
-      <c r="D245" s="96"/>
-      <c r="E245" s="96"/>
-      <c r="F245" s="96"/>
-      <c r="G245" s="100"/>
+      <c r="B245" s="94"/>
+      <c r="C245" s="96"/>
+      <c r="D245" s="87"/>
+      <c r="E245" s="87"/>
+      <c r="F245" s="87"/>
+      <c r="G245" s="93"/>
       <c r="H245" s="32" t="s">
         <v>216</v>
       </c>
@@ -21558,34 +21558,34 @@
       </c>
     </row>
     <row r="246" spans="2:9" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B246" s="98"/>
-      <c r="C246" s="102"/>
-      <c r="D246" s="103"/>
-      <c r="E246" s="103"/>
-      <c r="F246" s="103"/>
-      <c r="G246" s="104"/>
+      <c r="B246" s="94"/>
+      <c r="C246" s="104"/>
+      <c r="D246" s="102"/>
+      <c r="E246" s="102"/>
+      <c r="F246" s="102"/>
+      <c r="G246" s="103"/>
       <c r="H246" s="34"/>
       <c r="I246" s="35" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="247" spans="2:9" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B247" s="119" t="s">
+      <c r="B247" s="112" t="s">
         <v>259</v>
       </c>
-      <c r="C247" s="119"/>
-      <c r="D247" s="119"/>
-      <c r="E247" s="119"/>
-      <c r="F247" s="119"/>
-      <c r="G247" s="119"/>
-      <c r="H247" s="119"/>
-      <c r="I247" s="119"/>
+      <c r="C247" s="112"/>
+      <c r="D247" s="112"/>
+      <c r="E247" s="112"/>
+      <c r="F247" s="112"/>
+      <c r="G247" s="112"/>
+      <c r="H247" s="112"/>
+      <c r="I247" s="112"/>
     </row>
     <row r="248" spans="2:9" ht="39.75" customHeight="1">
-      <c r="B248" s="89" t="s">
+      <c r="B248" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C248" s="92" t="s">
+      <c r="C248" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D248" s="10"/>
@@ -21596,8 +21596,8 @@
       <c r="I248" s="11"/>
     </row>
     <row r="249" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B249" s="90"/>
-      <c r="C249" s="93"/>
+      <c r="B249" s="91"/>
+      <c r="C249" s="98"/>
       <c r="D249" s="12" t="s">
         <v>12</v>
       </c>
@@ -21618,22 +21618,22 @@
       </c>
     </row>
     <row r="250" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B250" s="98" t="s">
+      <c r="B250" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="C250" s="99" t="s">
+      <c r="C250" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="D250" s="96" t="s">
+      <c r="D250" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E250" s="96" t="s">
+      <c r="E250" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F250" s="96" t="s">
+      <c r="F250" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G250" s="100">
+      <c r="G250" s="93">
         <v>45361</v>
       </c>
       <c r="H250" s="32" t="s">
@@ -21644,12 +21644,12 @@
       </c>
     </row>
     <row r="251" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B251" s="98"/>
-      <c r="C251" s="99"/>
-      <c r="D251" s="96"/>
-      <c r="E251" s="96"/>
-      <c r="F251" s="96"/>
-      <c r="G251" s="100"/>
+      <c r="B251" s="94"/>
+      <c r="C251" s="96"/>
+      <c r="D251" s="87"/>
+      <c r="E251" s="87"/>
+      <c r="F251" s="87"/>
+      <c r="G251" s="93"/>
       <c r="H251" s="32" t="s">
         <v>216</v>
       </c>
@@ -21658,34 +21658,34 @@
       </c>
     </row>
     <row r="252" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B252" s="98"/>
-      <c r="C252" s="99"/>
-      <c r="D252" s="96"/>
-      <c r="E252" s="96"/>
-      <c r="F252" s="96"/>
-      <c r="G252" s="100"/>
+      <c r="B252" s="94"/>
+      <c r="C252" s="96"/>
+      <c r="D252" s="87"/>
+      <c r="E252" s="87"/>
+      <c r="F252" s="87"/>
+      <c r="G252" s="93"/>
       <c r="H252" s="32"/>
       <c r="I252" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="253" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B253" s="98" t="s">
+      <c r="B253" s="94" t="s">
         <v>260</v>
       </c>
       <c r="C253" s="95" t="s">
         <v>261</v>
       </c>
-      <c r="D253" s="96" t="s">
+      <c r="D253" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E253" s="96" t="s">
+      <c r="E253" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F253" s="96" t="s">
+      <c r="F253" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G253" s="100">
+      <c r="G253" s="93">
         <v>45361</v>
       </c>
       <c r="H253" s="36" t="s">
@@ -21696,12 +21696,12 @@
       </c>
     </row>
     <row r="254" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B254" s="98"/>
+      <c r="B254" s="94"/>
       <c r="C254" s="95"/>
-      <c r="D254" s="96"/>
-      <c r="E254" s="96"/>
-      <c r="F254" s="96"/>
-      <c r="G254" s="100"/>
+      <c r="D254" s="87"/>
+      <c r="E254" s="87"/>
+      <c r="F254" s="87"/>
+      <c r="G254" s="93"/>
       <c r="H254" s="36" t="s">
         <v>216</v>
       </c>
@@ -21710,34 +21710,34 @@
       </c>
     </row>
     <row r="255" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B255" s="98"/>
+      <c r="B255" s="94"/>
       <c r="C255" s="95"/>
-      <c r="D255" s="96"/>
-      <c r="E255" s="96"/>
-      <c r="F255" s="96"/>
-      <c r="G255" s="100"/>
+      <c r="D255" s="87"/>
+      <c r="E255" s="87"/>
+      <c r="F255" s="87"/>
+      <c r="G255" s="93"/>
       <c r="H255" s="36"/>
       <c r="I255" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="256" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B256" s="98" t="s">
+      <c r="B256" s="94" t="s">
         <v>262</v>
       </c>
-      <c r="C256" s="99" t="s">
+      <c r="C256" s="96" t="s">
         <v>263</v>
       </c>
-      <c r="D256" s="96" t="s">
+      <c r="D256" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E256" s="96" t="s">
+      <c r="E256" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F256" s="96" t="s">
+      <c r="F256" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G256" s="100">
+      <c r="G256" s="93">
         <v>45361</v>
       </c>
       <c r="H256" s="32" t="s">
@@ -21748,12 +21748,12 @@
       </c>
     </row>
     <row r="257" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B257" s="98"/>
-      <c r="C257" s="99"/>
-      <c r="D257" s="96"/>
-      <c r="E257" s="96"/>
-      <c r="F257" s="96"/>
-      <c r="G257" s="100"/>
+      <c r="B257" s="94"/>
+      <c r="C257" s="96"/>
+      <c r="D257" s="87"/>
+      <c r="E257" s="87"/>
+      <c r="F257" s="87"/>
+      <c r="G257" s="93"/>
       <c r="H257" s="32" t="s">
         <v>216</v>
       </c>
@@ -21762,34 +21762,34 @@
       </c>
     </row>
     <row r="258" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B258" s="98"/>
-      <c r="C258" s="99"/>
-      <c r="D258" s="96"/>
-      <c r="E258" s="96"/>
-      <c r="F258" s="96"/>
-      <c r="G258" s="100"/>
+      <c r="B258" s="94"/>
+      <c r="C258" s="96"/>
+      <c r="D258" s="87"/>
+      <c r="E258" s="87"/>
+      <c r="F258" s="87"/>
+      <c r="G258" s="93"/>
       <c r="H258" s="32"/>
       <c r="I258" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="259" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B259" s="98" t="s">
+      <c r="B259" s="94" t="s">
         <v>264</v>
       </c>
       <c r="C259" s="95" t="s">
         <v>265</v>
       </c>
-      <c r="D259" s="96" t="s">
+      <c r="D259" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E259" s="96" t="s">
+      <c r="E259" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F259" s="96" t="s">
+      <c r="F259" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G259" s="100">
+      <c r="G259" s="93">
         <v>45361</v>
       </c>
       <c r="H259" s="36" t="s">
@@ -21800,12 +21800,12 @@
       </c>
     </row>
     <row r="260" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B260" s="98"/>
+      <c r="B260" s="94"/>
       <c r="C260" s="95"/>
-      <c r="D260" s="96"/>
-      <c r="E260" s="96"/>
-      <c r="F260" s="96"/>
-      <c r="G260" s="100"/>
+      <c r="D260" s="87"/>
+      <c r="E260" s="87"/>
+      <c r="F260" s="87"/>
+      <c r="G260" s="93"/>
       <c r="H260" s="36" t="s">
         <v>216</v>
       </c>
@@ -21814,34 +21814,34 @@
       </c>
     </row>
     <row r="261" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B261" s="98"/>
+      <c r="B261" s="94"/>
       <c r="C261" s="95"/>
-      <c r="D261" s="96"/>
-      <c r="E261" s="96"/>
-      <c r="F261" s="96"/>
-      <c r="G261" s="100"/>
+      <c r="D261" s="87"/>
+      <c r="E261" s="87"/>
+      <c r="F261" s="87"/>
+      <c r="G261" s="93"/>
       <c r="H261" s="36"/>
       <c r="I261" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="262" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B262" s="98" t="s">
+      <c r="B262" s="94" t="s">
         <v>266</v>
       </c>
-      <c r="C262" s="99" t="s">
+      <c r="C262" s="96" t="s">
         <v>267</v>
       </c>
-      <c r="D262" s="96" t="s">
+      <c r="D262" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E262" s="96" t="s">
+      <c r="E262" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F262" s="96" t="s">
+      <c r="F262" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G262" s="100">
+      <c r="G262" s="93">
         <v>45361</v>
       </c>
       <c r="H262" s="32" t="s">
@@ -21852,12 +21852,12 @@
       </c>
     </row>
     <row r="263" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B263" s="98"/>
-      <c r="C263" s="99"/>
-      <c r="D263" s="96"/>
-      <c r="E263" s="96"/>
-      <c r="F263" s="96"/>
-      <c r="G263" s="100"/>
+      <c r="B263" s="94"/>
+      <c r="C263" s="96"/>
+      <c r="D263" s="87"/>
+      <c r="E263" s="87"/>
+      <c r="F263" s="87"/>
+      <c r="G263" s="93"/>
       <c r="H263" s="32" t="s">
         <v>216</v>
       </c>
@@ -21866,34 +21866,34 @@
       </c>
     </row>
     <row r="264" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B264" s="98"/>
-      <c r="C264" s="99"/>
-      <c r="D264" s="96"/>
-      <c r="E264" s="96"/>
-      <c r="F264" s="96"/>
-      <c r="G264" s="100"/>
+      <c r="B264" s="94"/>
+      <c r="C264" s="96"/>
+      <c r="D264" s="87"/>
+      <c r="E264" s="87"/>
+      <c r="F264" s="87"/>
+      <c r="G264" s="93"/>
       <c r="H264" s="32"/>
       <c r="I264" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="265" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B265" s="98" t="s">
+      <c r="B265" s="94" t="s">
         <v>268</v>
       </c>
       <c r="C265" s="95" t="s">
         <v>269</v>
       </c>
-      <c r="D265" s="96" t="s">
+      <c r="D265" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E265" s="96" t="s">
+      <c r="E265" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F265" s="96" t="s">
+      <c r="F265" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G265" s="100">
+      <c r="G265" s="93">
         <v>45361</v>
       </c>
       <c r="H265" s="36" t="s">
@@ -21904,12 +21904,12 @@
       </c>
     </row>
     <row r="266" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B266" s="98"/>
+      <c r="B266" s="94"/>
       <c r="C266" s="95"/>
-      <c r="D266" s="96"/>
-      <c r="E266" s="96"/>
-      <c r="F266" s="96"/>
-      <c r="G266" s="100"/>
+      <c r="D266" s="87"/>
+      <c r="E266" s="87"/>
+      <c r="F266" s="87"/>
+      <c r="G266" s="93"/>
       <c r="H266" s="36" t="s">
         <v>216</v>
       </c>
@@ -21918,34 +21918,34 @@
       </c>
     </row>
     <row r="267" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B267" s="98"/>
+      <c r="B267" s="94"/>
       <c r="C267" s="95"/>
-      <c r="D267" s="96"/>
-      <c r="E267" s="96"/>
-      <c r="F267" s="96"/>
-      <c r="G267" s="100"/>
+      <c r="D267" s="87"/>
+      <c r="E267" s="87"/>
+      <c r="F267" s="87"/>
+      <c r="G267" s="93"/>
       <c r="H267" s="36"/>
       <c r="I267" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="268" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B268" s="98" t="s">
+      <c r="B268" s="94" t="s">
         <v>270</v>
       </c>
-      <c r="C268" s="99" t="s">
+      <c r="C268" s="96" t="s">
         <v>271</v>
       </c>
-      <c r="D268" s="96" t="s">
+      <c r="D268" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E268" s="96" t="s">
+      <c r="E268" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F268" s="96" t="s">
+      <c r="F268" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G268" s="100">
+      <c r="G268" s="93">
         <v>45361</v>
       </c>
       <c r="H268" s="32" t="s">
@@ -21956,12 +21956,12 @@
       </c>
     </row>
     <row r="269" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B269" s="98"/>
-      <c r="C269" s="99"/>
-      <c r="D269" s="96"/>
-      <c r="E269" s="96"/>
-      <c r="F269" s="96"/>
-      <c r="G269" s="100"/>
+      <c r="B269" s="94"/>
+      <c r="C269" s="96"/>
+      <c r="D269" s="87"/>
+      <c r="E269" s="87"/>
+      <c r="F269" s="87"/>
+      <c r="G269" s="93"/>
       <c r="H269" s="32" t="s">
         <v>216</v>
       </c>
@@ -21970,34 +21970,34 @@
       </c>
     </row>
     <row r="270" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B270" s="98"/>
-      <c r="C270" s="99"/>
-      <c r="D270" s="96"/>
-      <c r="E270" s="96"/>
-      <c r="F270" s="96"/>
-      <c r="G270" s="100"/>
+      <c r="B270" s="94"/>
+      <c r="C270" s="96"/>
+      <c r="D270" s="87"/>
+      <c r="E270" s="87"/>
+      <c r="F270" s="87"/>
+      <c r="G270" s="93"/>
       <c r="H270" s="32"/>
       <c r="I270" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="271" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B271" s="98" t="s">
+      <c r="B271" s="94" t="s">
         <v>272</v>
       </c>
       <c r="C271" s="95" t="s">
         <v>273</v>
       </c>
-      <c r="D271" s="96" t="s">
+      <c r="D271" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E271" s="96" t="s">
+      <c r="E271" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F271" s="96" t="s">
+      <c r="F271" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G271" s="100">
+      <c r="G271" s="93">
         <v>45361</v>
       </c>
       <c r="H271" s="36" t="s">
@@ -22008,12 +22008,12 @@
       </c>
     </row>
     <row r="272" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B272" s="98"/>
+      <c r="B272" s="94"/>
       <c r="C272" s="95"/>
-      <c r="D272" s="96"/>
-      <c r="E272" s="96"/>
-      <c r="F272" s="96"/>
-      <c r="G272" s="100"/>
+      <c r="D272" s="87"/>
+      <c r="E272" s="87"/>
+      <c r="F272" s="87"/>
+      <c r="G272" s="93"/>
       <c r="H272" s="36" t="s">
         <v>216</v>
       </c>
@@ -22022,34 +22022,34 @@
       </c>
     </row>
     <row r="273" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B273" s="98"/>
+      <c r="B273" s="94"/>
       <c r="C273" s="95"/>
-      <c r="D273" s="96"/>
-      <c r="E273" s="96"/>
-      <c r="F273" s="96"/>
-      <c r="G273" s="100"/>
+      <c r="D273" s="87"/>
+      <c r="E273" s="87"/>
+      <c r="F273" s="87"/>
+      <c r="G273" s="93"/>
       <c r="H273" s="36"/>
       <c r="I273" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="274" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B274" s="98" t="s">
+      <c r="B274" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="C274" s="99" t="s">
+      <c r="C274" s="96" t="s">
         <v>275</v>
       </c>
-      <c r="D274" s="96" t="s">
+      <c r="D274" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E274" s="96" t="s">
+      <c r="E274" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F274" s="96" t="s">
+      <c r="F274" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G274" s="100">
+      <c r="G274" s="93">
         <v>45361</v>
       </c>
       <c r="H274" s="32" t="s">
@@ -22060,12 +22060,12 @@
       </c>
     </row>
     <row r="275" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B275" s="98"/>
-      <c r="C275" s="99"/>
-      <c r="D275" s="96"/>
-      <c r="E275" s="96"/>
-      <c r="F275" s="96"/>
-      <c r="G275" s="100"/>
+      <c r="B275" s="94"/>
+      <c r="C275" s="96"/>
+      <c r="D275" s="87"/>
+      <c r="E275" s="87"/>
+      <c r="F275" s="87"/>
+      <c r="G275" s="93"/>
       <c r="H275" s="32" t="s">
         <v>216</v>
       </c>
@@ -22074,34 +22074,34 @@
       </c>
     </row>
     <row r="276" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B276" s="98"/>
-      <c r="C276" s="99"/>
-      <c r="D276" s="96"/>
-      <c r="E276" s="96"/>
-      <c r="F276" s="96"/>
-      <c r="G276" s="100"/>
+      <c r="B276" s="94"/>
+      <c r="C276" s="96"/>
+      <c r="D276" s="87"/>
+      <c r="E276" s="87"/>
+      <c r="F276" s="87"/>
+      <c r="G276" s="93"/>
       <c r="H276" s="32"/>
       <c r="I276" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="277" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B277" s="98" t="s">
+      <c r="B277" s="94" t="s">
         <v>276</v>
       </c>
       <c r="C277" s="95" t="s">
         <v>277</v>
       </c>
-      <c r="D277" s="96" t="s">
+      <c r="D277" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E277" s="96" t="s">
+      <c r="E277" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F277" s="96" t="s">
+      <c r="F277" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G277" s="100">
+      <c r="G277" s="93">
         <v>45361</v>
       </c>
       <c r="H277" s="36" t="s">
@@ -22112,12 +22112,12 @@
       </c>
     </row>
     <row r="278" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B278" s="98"/>
+      <c r="B278" s="94"/>
       <c r="C278" s="95"/>
-      <c r="D278" s="96"/>
-      <c r="E278" s="96"/>
-      <c r="F278" s="96"/>
-      <c r="G278" s="100"/>
+      <c r="D278" s="87"/>
+      <c r="E278" s="87"/>
+      <c r="F278" s="87"/>
+      <c r="G278" s="93"/>
       <c r="H278" s="36" t="s">
         <v>216</v>
       </c>
@@ -22126,34 +22126,34 @@
       </c>
     </row>
     <row r="279" spans="2:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B279" s="98"/>
-      <c r="C279" s="105"/>
-      <c r="D279" s="103"/>
-      <c r="E279" s="103"/>
-      <c r="F279" s="103"/>
-      <c r="G279" s="104"/>
+      <c r="B279" s="94"/>
+      <c r="C279" s="107"/>
+      <c r="D279" s="102"/>
+      <c r="E279" s="102"/>
+      <c r="F279" s="102"/>
+      <c r="G279" s="103"/>
       <c r="H279" s="38"/>
       <c r="I279" s="35" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="280" spans="2:9" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B280" s="87" t="s">
+      <c r="B280" s="88" t="s">
         <v>340</v>
       </c>
-      <c r="C280" s="87"/>
-      <c r="D280" s="87"/>
-      <c r="E280" s="87"/>
-      <c r="F280" s="87"/>
-      <c r="G280" s="87"/>
-      <c r="H280" s="87"/>
-      <c r="I280" s="87"/>
+      <c r="C280" s="88"/>
+      <c r="D280" s="88"/>
+      <c r="E280" s="88"/>
+      <c r="F280" s="88"/>
+      <c r="G280" s="88"/>
+      <c r="H280" s="88"/>
+      <c r="I280" s="88"/>
     </row>
     <row r="281" spans="2:9" ht="48" customHeight="1">
-      <c r="B281" s="89" t="s">
+      <c r="B281" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C281" s="92" t="s">
+      <c r="C281" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D281" s="10"/>
@@ -22164,8 +22164,8 @@
       <c r="I281" s="11"/>
     </row>
     <row r="282" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B282" s="90"/>
-      <c r="C282" s="93"/>
+      <c r="B282" s="91"/>
+      <c r="C282" s="98"/>
       <c r="D282" s="12" t="s">
         <v>12</v>
       </c>
@@ -22290,10 +22290,10 @@
       </c>
     </row>
     <row r="287" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B287" s="106" t="s">
+      <c r="B287" s="105" t="s">
         <v>354</v>
       </c>
-      <c r="C287" s="99" t="s">
+      <c r="C287" s="96" t="s">
         <v>355</v>
       </c>
       <c r="D287" s="15" t="s">
@@ -22305,19 +22305,19 @@
       <c r="F287" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="G287" s="96" t="s">
+      <c r="G287" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="H287" s="96" t="s">
+      <c r="H287" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I287" s="97" t="s">
+      <c r="I287" s="100" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="288" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B288" s="106"/>
-      <c r="C288" s="99"/>
+      <c r="B288" s="105"/>
+      <c r="C288" s="96"/>
       <c r="D288" s="25" t="s">
         <v>357</v>
       </c>
@@ -22327,13 +22327,13 @@
       <c r="F288" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G288" s="96"/>
-      <c r="H288" s="96"/>
-      <c r="I288" s="97"/>
+      <c r="G288" s="87"/>
+      <c r="H288" s="87"/>
+      <c r="I288" s="100"/>
     </row>
     <row r="289" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B289" s="106"/>
-      <c r="C289" s="99"/>
+      <c r="B289" s="105"/>
+      <c r="C289" s="96"/>
       <c r="D289" s="25" t="s">
         <v>43</v>
       </c>
@@ -22341,9 +22341,9 @@
         <v>44</v>
       </c>
       <c r="F289" s="25"/>
-      <c r="G289" s="96"/>
-      <c r="H289" s="96"/>
-      <c r="I289" s="97"/>
+      <c r="G289" s="87"/>
+      <c r="H289" s="87"/>
+      <c r="I289" s="100"/>
     </row>
     <row r="290" spans="2:9" ht="19.5" customHeight="1">
       <c r="B290" s="108" t="s">
@@ -22355,16 +22355,16 @@
       <c r="D290" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="E290" s="96" t="s">
+      <c r="E290" s="87" t="s">
         <v>363</v>
       </c>
-      <c r="F290" s="96" t="s">
+      <c r="F290" s="87" t="s">
         <v>359</v>
       </c>
       <c r="G290" s="26">
         <v>45390</v>
       </c>
-      <c r="H290" s="107" t="s">
+      <c r="H290" s="106" t="s">
         <v>28</v>
       </c>
       <c r="I290" s="109" t="s">
@@ -22377,12 +22377,12 @@
       <c r="D291" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="E291" s="96"/>
-      <c r="F291" s="96"/>
+      <c r="E291" s="87"/>
+      <c r="F291" s="87"/>
       <c r="G291" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H291" s="107"/>
+      <c r="H291" s="106"/>
       <c r="I291" s="109"/>
     </row>
     <row r="292" spans="2:9" ht="19.5" customHeight="1">
@@ -22391,32 +22391,32 @@
       <c r="D292" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E292" s="96"/>
-      <c r="F292" s="96"/>
+      <c r="E292" s="87"/>
+      <c r="F292" s="87"/>
       <c r="G292" s="25"/>
-      <c r="H292" s="107"/>
+      <c r="H292" s="106"/>
       <c r="I292" s="109"/>
     </row>
     <row r="293" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B293" s="106" t="s">
+      <c r="B293" s="105" t="s">
         <v>364</v>
       </c>
-      <c r="C293" s="99" t="s">
+      <c r="C293" s="96" t="s">
         <v>365</v>
       </c>
-      <c r="D293" s="107" t="s">
+      <c r="D293" s="106" t="s">
         <v>28</v>
       </c>
       <c r="E293" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F293" s="107" t="s">
+      <c r="F293" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="G293" s="107" t="s">
+      <c r="G293" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="H293" s="107" t="s">
+      <c r="H293" s="106" t="s">
         <v>28</v>
       </c>
       <c r="I293" s="109" t="s">
@@ -22424,27 +22424,27 @@
       </c>
     </row>
     <row r="294" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B294" s="106"/>
-      <c r="C294" s="99"/>
-      <c r="D294" s="107"/>
+      <c r="B294" s="105"/>
+      <c r="C294" s="96"/>
+      <c r="D294" s="106"/>
       <c r="E294" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F294" s="107"/>
-      <c r="G294" s="107"/>
-      <c r="H294" s="107"/>
+      <c r="F294" s="106"/>
+      <c r="G294" s="106"/>
+      <c r="H294" s="106"/>
       <c r="I294" s="109"/>
     </row>
     <row r="295" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B295" s="106"/>
-      <c r="C295" s="99"/>
-      <c r="D295" s="107"/>
+      <c r="B295" s="105"/>
+      <c r="C295" s="96"/>
+      <c r="D295" s="106"/>
       <c r="E295" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F295" s="107"/>
-      <c r="G295" s="107"/>
-      <c r="H295" s="107"/>
+      <c r="F295" s="106"/>
+      <c r="G295" s="106"/>
+      <c r="H295" s="106"/>
       <c r="I295" s="109"/>
     </row>
     <row r="296" spans="2:9" ht="19.5" customHeight="1">
@@ -22682,16 +22682,16 @@
       </c>
     </row>
     <row r="305" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B305" s="106" t="s">
+      <c r="B305" s="105" t="s">
         <v>384</v>
       </c>
-      <c r="C305" s="99" t="s">
+      <c r="C305" s="96" t="s">
         <v>385</v>
       </c>
       <c r="D305" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E305" s="96" t="s">
+      <c r="E305" s="87" t="s">
         <v>122</v>
       </c>
       <c r="F305" s="25" t="s">
@@ -22700,7 +22700,7 @@
       <c r="G305" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="H305" s="107" t="s">
+      <c r="H305" s="106" t="s">
         <v>28</v>
       </c>
       <c r="I305" s="109" t="s">
@@ -22708,31 +22708,31 @@
       </c>
     </row>
     <row r="306" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B306" s="106"/>
-      <c r="C306" s="99"/>
+      <c r="B306" s="105"/>
+      <c r="C306" s="96"/>
       <c r="D306" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="E306" s="96"/>
+      <c r="E306" s="87"/>
       <c r="F306" s="25" t="s">
         <v>43</v>
       </c>
       <c r="G306" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H306" s="107"/>
+      <c r="H306" s="106"/>
       <c r="I306" s="109"/>
     </row>
     <row r="307" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B307" s="106"/>
-      <c r="C307" s="99"/>
+      <c r="B307" s="105"/>
+      <c r="C307" s="96"/>
       <c r="D307" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E307" s="96"/>
+      <c r="E307" s="87"/>
       <c r="F307" s="25"/>
       <c r="G307" s="25"/>
-      <c r="H307" s="107"/>
+      <c r="H307" s="106"/>
       <c r="I307" s="109"/>
     </row>
     <row r="308" spans="2:9" ht="19.5" customHeight="1">
@@ -22814,22 +22814,22 @@
       </c>
     </row>
     <row r="311" spans="2:9" ht="38.25" customHeight="1" thickBot="1">
-      <c r="B311" s="88" t="s">
+      <c r="B311" s="89" t="s">
         <v>393</v>
       </c>
-      <c r="C311" s="88"/>
-      <c r="D311" s="88"/>
-      <c r="E311" s="88"/>
-      <c r="F311" s="88"/>
-      <c r="G311" s="88"/>
-      <c r="H311" s="88"/>
-      <c r="I311" s="88"/>
+      <c r="C311" s="89"/>
+      <c r="D311" s="89"/>
+      <c r="E311" s="89"/>
+      <c r="F311" s="89"/>
+      <c r="G311" s="89"/>
+      <c r="H311" s="89"/>
+      <c r="I311" s="89"/>
     </row>
     <row r="312" spans="2:9" ht="45.75" customHeight="1">
-      <c r="B312" s="89" t="s">
+      <c r="B312" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C312" s="92" t="s">
+      <c r="C312" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D312" s="10"/>
@@ -22840,8 +22840,8 @@
       <c r="I312" s="11"/>
     </row>
     <row r="313" spans="2:9" ht="42" customHeight="1">
-      <c r="B313" s="90"/>
-      <c r="C313" s="93"/>
+      <c r="B313" s="91"/>
+      <c r="C313" s="98"/>
       <c r="D313" s="12" t="s">
         <v>12</v>
       </c>
@@ -22897,16 +22897,16 @@
       <c r="D315" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="E315" s="96" t="s">
+      <c r="E315" s="87" t="s">
         <v>398</v>
       </c>
       <c r="F315" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="G315" s="107" t="s">
+      <c r="G315" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="H315" s="107" t="s">
+      <c r="H315" s="106" t="s">
         <v>28</v>
       </c>
       <c r="I315" s="109" t="s">
@@ -22919,12 +22919,12 @@
       <c r="D316" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="E316" s="96"/>
+      <c r="E316" s="87"/>
       <c r="F316" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G316" s="107"/>
-      <c r="H316" s="107"/>
+      <c r="G316" s="106"/>
+      <c r="H316" s="106"/>
       <c r="I316" s="109"/>
     </row>
     <row r="317" spans="2:9" ht="21" customHeight="1">
@@ -22933,23 +22933,23 @@
       <c r="D317" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E317" s="96"/>
+      <c r="E317" s="87"/>
       <c r="F317" s="25"/>
-      <c r="G317" s="107"/>
-      <c r="H317" s="107"/>
+      <c r="G317" s="106"/>
+      <c r="H317" s="106"/>
       <c r="I317" s="109"/>
     </row>
     <row r="318" spans="2:9" ht="21" customHeight="1">
-      <c r="B318" s="106" t="s">
+      <c r="B318" s="105" t="s">
         <v>399</v>
       </c>
-      <c r="C318" s="99" t="s">
+      <c r="C318" s="96" t="s">
         <v>400</v>
       </c>
       <c r="D318" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="E318" s="107" t="s">
+      <c r="E318" s="106" t="s">
         <v>28</v>
       </c>
       <c r="F318" s="25" t="s">
@@ -22961,17 +22961,17 @@
       <c r="H318" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I318" s="97" t="s">
+      <c r="I318" s="100" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="319" spans="2:9" ht="21" customHeight="1">
-      <c r="B319" s="106"/>
-      <c r="C319" s="99"/>
+      <c r="B319" s="105"/>
+      <c r="C319" s="96"/>
       <c r="D319" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="E319" s="107"/>
+      <c r="E319" s="106"/>
       <c r="F319" s="25" t="s">
         <v>43</v>
       </c>
@@ -22981,19 +22981,19 @@
       <c r="H319" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="I319" s="97"/>
+      <c r="I319" s="100"/>
     </row>
     <row r="320" spans="2:9" ht="21" customHeight="1">
-      <c r="B320" s="106"/>
-      <c r="C320" s="99"/>
+      <c r="B320" s="105"/>
+      <c r="C320" s="96"/>
       <c r="D320" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E320" s="107"/>
+      <c r="E320" s="106"/>
       <c r="F320" s="25"/>
       <c r="G320" s="25"/>
       <c r="H320" s="25"/>
-      <c r="I320" s="97"/>
+      <c r="I320" s="100"/>
     </row>
     <row r="321" spans="2:9" ht="21" customHeight="1">
       <c r="B321" t="s">
@@ -23022,10 +23022,10 @@
       </c>
     </row>
     <row r="322" spans="2:9" ht="21" customHeight="1">
-      <c r="B322" s="106" t="s">
+      <c r="B322" s="105" t="s">
         <v>403</v>
       </c>
-      <c r="C322" s="99" t="s">
+      <c r="C322" s="96" t="s">
         <v>404</v>
       </c>
       <c r="D322" s="25" t="s">
@@ -23043,13 +23043,13 @@
       <c r="H322" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="I322" s="97" t="s">
+      <c r="I322" s="100" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="323" spans="2:9" ht="21" customHeight="1">
-      <c r="B323" s="106"/>
-      <c r="C323" s="99"/>
+      <c r="B323" s="105"/>
+      <c r="C323" s="96"/>
       <c r="D323" s="25" t="s">
         <v>43</v>
       </c>
@@ -23065,11 +23065,11 @@
       <c r="H323" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="I323" s="97"/>
+      <c r="I323" s="100"/>
     </row>
     <row r="324" spans="2:9" ht="21" customHeight="1" thickBot="1">
-      <c r="B324" s="118"/>
-      <c r="C324" s="102"/>
+      <c r="B324" s="119"/>
+      <c r="C324" s="104"/>
       <c r="D324" s="29"/>
       <c r="E324" s="29" t="s">
         <v>44</v>
@@ -23077,25 +23077,25 @@
       <c r="F324" s="29"/>
       <c r="G324" s="29"/>
       <c r="H324" s="29"/>
-      <c r="I324" s="111"/>
+      <c r="I324" s="110"/>
     </row>
     <row r="325" spans="2:9" ht="21.75" thickBot="1">
-      <c r="B325" s="87" t="s">
+      <c r="B325" s="88" t="s">
         <v>405</v>
       </c>
-      <c r="C325" s="87"/>
-      <c r="D325" s="87"/>
-      <c r="E325" s="87"/>
-      <c r="F325" s="87"/>
-      <c r="G325" s="87"/>
-      <c r="H325" s="87"/>
-      <c r="I325" s="87"/>
+      <c r="C325" s="88"/>
+      <c r="D325" s="88"/>
+      <c r="E325" s="88"/>
+      <c r="F325" s="88"/>
+      <c r="G325" s="88"/>
+      <c r="H325" s="88"/>
+      <c r="I325" s="88"/>
     </row>
     <row r="326" spans="2:9" ht="45" customHeight="1">
-      <c r="B326" s="89" t="s">
+      <c r="B326" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C326" s="92" t="s">
+      <c r="C326" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D326" s="10"/>
@@ -23106,8 +23106,8 @@
       <c r="I326" s="11"/>
     </row>
     <row r="327" spans="2:9">
-      <c r="B327" s="90"/>
-      <c r="C327" s="93"/>
+      <c r="B327" s="91"/>
+      <c r="C327" s="98"/>
       <c r="D327" s="12" t="s">
         <v>12</v>
       </c>
@@ -23258,22 +23258,22 @@
       </c>
     </row>
     <row r="333" spans="2:9" ht="21.75" thickBot="1">
-      <c r="B333" s="88" t="s">
+      <c r="B333" s="89" t="s">
         <v>429</v>
       </c>
-      <c r="C333" s="88"/>
-      <c r="D333" s="88"/>
-      <c r="E333" s="88"/>
-      <c r="F333" s="88"/>
-      <c r="G333" s="88"/>
-      <c r="H333" s="88"/>
-      <c r="I333" s="88"/>
+      <c r="C333" s="89"/>
+      <c r="D333" s="89"/>
+      <c r="E333" s="89"/>
+      <c r="F333" s="89"/>
+      <c r="G333" s="89"/>
+      <c r="H333" s="89"/>
+      <c r="I333" s="89"/>
     </row>
     <row r="334" spans="2:9" ht="39.75" customHeight="1">
-      <c r="B334" s="89" t="s">
+      <c r="B334" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C334" s="92" t="s">
+      <c r="C334" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D334" s="10"/>
@@ -23284,8 +23284,8 @@
       <c r="I334" s="11"/>
     </row>
     <row r="335" spans="2:9">
-      <c r="B335" s="90"/>
-      <c r="C335" s="93"/>
+      <c r="B335" s="91"/>
+      <c r="C335" s="98"/>
       <c r="D335" s="12" t="s">
         <v>12</v>
       </c>
@@ -23306,10 +23306,10 @@
       </c>
     </row>
     <row r="336" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B336" s="98" t="s">
+      <c r="B336" s="94" t="s">
         <v>430</v>
       </c>
-      <c r="C336" s="99" t="s">
+      <c r="C336" s="96" t="s">
         <v>431</v>
       </c>
       <c r="D336" s="15" t="s">
@@ -23324,16 +23324,16 @@
       <c r="G336" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H336" s="96" t="s">
+      <c r="H336" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I336" s="97" t="s">
+      <c r="I336" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="337" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B337" s="98"/>
-      <c r="C337" s="99"/>
+      <c r="B337" s="94"/>
+      <c r="C337" s="96"/>
       <c r="D337" s="25" t="s">
         <v>7</v>
       </c>
@@ -23346,12 +23346,12 @@
       <c r="G337" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H337" s="96"/>
-      <c r="I337" s="97"/>
+      <c r="H337" s="87"/>
+      <c r="I337" s="100"/>
     </row>
     <row r="338" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B338" s="98"/>
-      <c r="C338" s="99"/>
+      <c r="B338" s="94"/>
+      <c r="C338" s="96"/>
       <c r="D338" s="25" t="s">
         <v>43</v>
       </c>
@@ -23364,11 +23364,11 @@
       <c r="G338" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H338" s="96"/>
-      <c r="I338" s="97"/>
+      <c r="H338" s="87"/>
+      <c r="I338" s="100"/>
     </row>
     <row r="339" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B339" s="98" t="s">
+      <c r="B339" s="94" t="s">
         <v>432</v>
       </c>
       <c r="C339" s="95" t="s">
@@ -23386,15 +23386,15 @@
       <c r="G339" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H339" s="96" t="s">
+      <c r="H339" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I339" s="97" t="s">
+      <c r="I339" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="340" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B340" s="98"/>
+      <c r="B340" s="94"/>
       <c r="C340" s="95"/>
       <c r="D340" s="25" t="s">
         <v>7</v>
@@ -23408,11 +23408,11 @@
       <c r="G340" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H340" s="96"/>
-      <c r="I340" s="97"/>
+      <c r="H340" s="87"/>
+      <c r="I340" s="100"/>
     </row>
     <row r="341" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B341" s="98"/>
+      <c r="B341" s="94"/>
       <c r="C341" s="95"/>
       <c r="D341" s="25" t="s">
         <v>43</v>
@@ -23426,14 +23426,14 @@
       <c r="G341" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H341" s="96"/>
-      <c r="I341" s="97"/>
+      <c r="H341" s="87"/>
+      <c r="I341" s="100"/>
     </row>
     <row r="342" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B342" s="98" t="s">
+      <c r="B342" s="94" t="s">
         <v>434</v>
       </c>
-      <c r="C342" s="99" t="s">
+      <c r="C342" s="96" t="s">
         <v>435</v>
       </c>
       <c r="D342" s="15" t="s">
@@ -23448,16 +23448,16 @@
       <c r="G342" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H342" s="96" t="s">
+      <c r="H342" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I342" s="97" t="s">
+      <c r="I342" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="343" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B343" s="98"/>
-      <c r="C343" s="99"/>
+      <c r="B343" s="94"/>
+      <c r="C343" s="96"/>
       <c r="D343" s="25" t="s">
         <v>7</v>
       </c>
@@ -23470,12 +23470,12 @@
       <c r="G343" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H343" s="96"/>
-      <c r="I343" s="97"/>
+      <c r="H343" s="87"/>
+      <c r="I343" s="100"/>
     </row>
     <row r="344" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B344" s="98"/>
-      <c r="C344" s="99"/>
+      <c r="B344" s="94"/>
+      <c r="C344" s="96"/>
       <c r="D344" s="25" t="s">
         <v>43</v>
       </c>
@@ -23488,11 +23488,11 @@
       <c r="G344" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H344" s="96"/>
-      <c r="I344" s="97"/>
+      <c r="H344" s="87"/>
+      <c r="I344" s="100"/>
     </row>
     <row r="345" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B345" s="98" t="s">
+      <c r="B345" s="94" t="s">
         <v>436</v>
       </c>
       <c r="C345" s="95" t="s">
@@ -23510,15 +23510,15 @@
       <c r="G345" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H345" s="96" t="s">
+      <c r="H345" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I345" s="97" t="s">
+      <c r="I345" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="346" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B346" s="98"/>
+      <c r="B346" s="94"/>
       <c r="C346" s="95"/>
       <c r="D346" s="25" t="s">
         <v>7</v>
@@ -23532,11 +23532,11 @@
       <c r="G346" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H346" s="96"/>
-      <c r="I346" s="97"/>
+      <c r="H346" s="87"/>
+      <c r="I346" s="100"/>
     </row>
     <row r="347" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B347" s="98"/>
+      <c r="B347" s="94"/>
       <c r="C347" s="95"/>
       <c r="D347" s="25" t="s">
         <v>43</v>
@@ -23550,14 +23550,14 @@
       <c r="G347" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H347" s="96"/>
-      <c r="I347" s="97"/>
+      <c r="H347" s="87"/>
+      <c r="I347" s="100"/>
     </row>
     <row r="348" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B348" s="98" t="s">
+      <c r="B348" s="94" t="s">
         <v>438</v>
       </c>
-      <c r="C348" s="99" t="s">
+      <c r="C348" s="96" t="s">
         <v>439</v>
       </c>
       <c r="D348" s="15" t="s">
@@ -23572,16 +23572,16 @@
       <c r="G348" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H348" s="96" t="s">
+      <c r="H348" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I348" s="97" t="s">
+      <c r="I348" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="349" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B349" s="98"/>
-      <c r="C349" s="99"/>
+      <c r="B349" s="94"/>
+      <c r="C349" s="96"/>
       <c r="D349" s="25" t="s">
         <v>7</v>
       </c>
@@ -23594,12 +23594,12 @@
       <c r="G349" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H349" s="96"/>
-      <c r="I349" s="97"/>
+      <c r="H349" s="87"/>
+      <c r="I349" s="100"/>
     </row>
     <row r="350" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B350" s="98"/>
-      <c r="C350" s="99"/>
+      <c r="B350" s="94"/>
+      <c r="C350" s="96"/>
       <c r="D350" s="25" t="s">
         <v>43</v>
       </c>
@@ -23612,14 +23612,14 @@
       <c r="G350" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H350" s="96"/>
-      <c r="I350" s="97"/>
+      <c r="H350" s="87"/>
+      <c r="I350" s="100"/>
     </row>
     <row r="351" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B351" s="98" t="s">
+      <c r="B351" s="94" t="s">
         <v>440</v>
       </c>
-      <c r="C351" s="110" t="s">
+      <c r="C351" s="111" t="s">
         <v>441</v>
       </c>
       <c r="D351" s="15" t="s">
@@ -23634,16 +23634,16 @@
       <c r="G351" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H351" s="96" t="s">
+      <c r="H351" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I351" s="97" t="s">
+      <c r="I351" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="352" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B352" s="98"/>
-      <c r="C352" s="110"/>
+      <c r="B352" s="94"/>
+      <c r="C352" s="111"/>
       <c r="D352" s="25" t="s">
         <v>7</v>
       </c>
@@ -23656,12 +23656,12 @@
       <c r="G352" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H352" s="96"/>
-      <c r="I352" s="97"/>
+      <c r="H352" s="87"/>
+      <c r="I352" s="100"/>
     </row>
     <row r="353" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B353" s="98"/>
-      <c r="C353" s="110"/>
+      <c r="B353" s="94"/>
+      <c r="C353" s="111"/>
       <c r="D353" s="25" t="s">
         <v>43</v>
       </c>
@@ -23674,14 +23674,14 @@
       <c r="G353" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H353" s="96"/>
-      <c r="I353" s="97"/>
+      <c r="H353" s="87"/>
+      <c r="I353" s="100"/>
     </row>
     <row r="354" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B354" s="98" t="s">
+      <c r="B354" s="94" t="s">
         <v>442</v>
       </c>
-      <c r="C354" s="99" t="s">
+      <c r="C354" s="96" t="s">
         <v>443</v>
       </c>
       <c r="D354" s="15" t="s">
@@ -23696,16 +23696,16 @@
       <c r="G354" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H354" s="96" t="s">
+      <c r="H354" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I354" s="97" t="s">
+      <c r="I354" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="355" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B355" s="98"/>
-      <c r="C355" s="99"/>
+      <c r="B355" s="94"/>
+      <c r="C355" s="96"/>
       <c r="D355" s="25" t="s">
         <v>7</v>
       </c>
@@ -23718,12 +23718,12 @@
       <c r="G355" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H355" s="96"/>
-      <c r="I355" s="97"/>
+      <c r="H355" s="87"/>
+      <c r="I355" s="100"/>
     </row>
     <row r="356" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B356" s="98"/>
-      <c r="C356" s="99"/>
+      <c r="B356" s="94"/>
+      <c r="C356" s="96"/>
       <c r="D356" s="25" t="s">
         <v>43</v>
       </c>
@@ -23736,14 +23736,14 @@
       <c r="G356" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H356" s="96"/>
-      <c r="I356" s="97"/>
+      <c r="H356" s="87"/>
+      <c r="I356" s="100"/>
     </row>
     <row r="357" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B357" s="98" t="s">
+      <c r="B357" s="94" t="s">
         <v>444</v>
       </c>
-      <c r="C357" s="110" t="s">
+      <c r="C357" s="111" t="s">
         <v>445</v>
       </c>
       <c r="D357" s="15" t="s">
@@ -23758,16 +23758,16 @@
       <c r="G357" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H357" s="96" t="s">
+      <c r="H357" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I357" s="97" t="s">
+      <c r="I357" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="358" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B358" s="98"/>
-      <c r="C358" s="110"/>
+      <c r="B358" s="94"/>
+      <c r="C358" s="111"/>
       <c r="D358" s="25" t="s">
         <v>7</v>
       </c>
@@ -23780,12 +23780,12 @@
       <c r="G358" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H358" s="96"/>
-      <c r="I358" s="97"/>
+      <c r="H358" s="87"/>
+      <c r="I358" s="100"/>
     </row>
     <row r="359" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B359" s="98"/>
-      <c r="C359" s="110"/>
+      <c r="B359" s="94"/>
+      <c r="C359" s="111"/>
       <c r="D359" s="25" t="s">
         <v>43</v>
       </c>
@@ -23798,14 +23798,14 @@
       <c r="G359" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H359" s="96"/>
-      <c r="I359" s="97"/>
+      <c r="H359" s="87"/>
+      <c r="I359" s="100"/>
     </row>
     <row r="360" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B360" s="98" t="s">
+      <c r="B360" s="94" t="s">
         <v>446</v>
       </c>
-      <c r="C360" s="99" t="s">
+      <c r="C360" s="96" t="s">
         <v>447</v>
       </c>
       <c r="D360" s="15" t="s">
@@ -23820,16 +23820,16 @@
       <c r="G360" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H360" s="96" t="s">
+      <c r="H360" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I360" s="97" t="s">
+      <c r="I360" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="361" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B361" s="98"/>
-      <c r="C361" s="99"/>
+      <c r="B361" s="94"/>
+      <c r="C361" s="96"/>
       <c r="D361" s="25" t="s">
         <v>7</v>
       </c>
@@ -23842,12 +23842,12 @@
       <c r="G361" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H361" s="96"/>
-      <c r="I361" s="97"/>
+      <c r="H361" s="87"/>
+      <c r="I361" s="100"/>
     </row>
     <row r="362" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B362" s="98"/>
-      <c r="C362" s="99"/>
+      <c r="B362" s="94"/>
+      <c r="C362" s="96"/>
       <c r="D362" s="25" t="s">
         <v>43</v>
       </c>
@@ -23860,11 +23860,11 @@
       <c r="G362" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H362" s="96"/>
-      <c r="I362" s="97"/>
+      <c r="H362" s="87"/>
+      <c r="I362" s="100"/>
     </row>
     <row r="363" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B363" s="98" t="s">
+      <c r="B363" s="94" t="s">
         <v>448</v>
       </c>
       <c r="C363" s="95" t="s">
@@ -23882,15 +23882,15 @@
       <c r="G363" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H363" s="96" t="s">
+      <c r="H363" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I363" s="97" t="s">
+      <c r="I363" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="364" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B364" s="98"/>
+      <c r="B364" s="94"/>
       <c r="C364" s="95"/>
       <c r="D364" s="25" t="s">
         <v>7</v>
@@ -23904,12 +23904,12 @@
       <c r="G364" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H364" s="96"/>
-      <c r="I364" s="97"/>
+      <c r="H364" s="87"/>
+      <c r="I364" s="100"/>
     </row>
     <row r="365" spans="2:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B365" s="98"/>
-      <c r="C365" s="105"/>
+      <c r="B365" s="94"/>
+      <c r="C365" s="107"/>
       <c r="D365" s="29" t="s">
         <v>43</v>
       </c>
@@ -23922,26 +23922,26 @@
       <c r="G365" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H365" s="103"/>
-      <c r="I365" s="111"/>
+      <c r="H365" s="102"/>
+      <c r="I365" s="110"/>
     </row>
     <row r="366" spans="2:9" ht="31.5" customHeight="1" thickBot="1">
-      <c r="B366" s="88" t="s">
+      <c r="B366" s="89" t="s">
         <v>480</v>
       </c>
-      <c r="C366" s="88"/>
-      <c r="D366" s="88"/>
-      <c r="E366" s="88"/>
-      <c r="F366" s="88"/>
-      <c r="G366" s="88"/>
-      <c r="H366" s="88"/>
-      <c r="I366" s="88"/>
+      <c r="C366" s="89"/>
+      <c r="D366" s="89"/>
+      <c r="E366" s="89"/>
+      <c r="F366" s="89"/>
+      <c r="G366" s="89"/>
+      <c r="H366" s="89"/>
+      <c r="I366" s="89"/>
     </row>
     <row r="367" spans="2:9" ht="42" customHeight="1">
-      <c r="B367" s="89" t="s">
+      <c r="B367" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C367" s="92" t="s">
+      <c r="C367" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D367" s="10"/>
@@ -23952,8 +23952,8 @@
       <c r="I367" s="11"/>
     </row>
     <row r="368" spans="2:9">
-      <c r="B368" s="90"/>
-      <c r="C368" s="93"/>
+      <c r="B368" s="91"/>
+      <c r="C368" s="98"/>
       <c r="D368" s="12" t="s">
         <v>12</v>
       </c>
@@ -23974,10 +23974,10 @@
       </c>
     </row>
     <row r="369" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B369" s="98" t="s">
+      <c r="B369" s="94" t="s">
         <v>481</v>
       </c>
-      <c r="C369" s="99" t="s">
+      <c r="C369" s="96" t="s">
         <v>482</v>
       </c>
       <c r="D369" s="15" t="s">
@@ -23986,50 +23986,50 @@
       <c r="E369" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="F369" s="96" t="s">
+      <c r="F369" s="87" t="s">
         <v>483</v>
       </c>
       <c r="G369" s="16">
         <v>45296</v>
       </c>
-      <c r="H369" s="96" t="s">
+      <c r="H369" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="I369" s="97" t="s">
+      <c r="I369" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="370" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B370" s="98"/>
-      <c r="C370" s="99"/>
+      <c r="B370" s="94"/>
+      <c r="C370" s="96"/>
       <c r="D370" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E370" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F370" s="96"/>
+      <c r="F370" s="87"/>
       <c r="G370" s="26">
         <v>45325</v>
       </c>
-      <c r="H370" s="96"/>
-      <c r="I370" s="97"/>
+      <c r="H370" s="87"/>
+      <c r="I370" s="100"/>
     </row>
     <row r="371" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B371" s="98"/>
-      <c r="C371" s="99"/>
+      <c r="B371" s="94"/>
+      <c r="C371" s="96"/>
       <c r="D371" s="25" t="s">
         <v>43</v>
       </c>
       <c r="E371" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F371" s="96"/>
+      <c r="F371" s="87"/>
       <c r="G371" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H371" s="96"/>
-      <c r="I371" s="97"/>
+      <c r="H371" s="87"/>
+      <c r="I371" s="100"/>
     </row>
     <row r="372" spans="2:9" ht="19.5" customHeight="1">
       <c r="B372" s="54" t="s">
@@ -24240,25 +24240,25 @@
       </c>
     </row>
     <row r="380" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B380" s="98" t="s">
+      <c r="B380" s="94" t="s">
         <v>511</v>
       </c>
       <c r="C380" s="95" t="s">
         <v>512</v>
       </c>
-      <c r="D380" s="96" t="s">
+      <c r="D380" s="87" t="s">
         <v>7</v>
       </c>
       <c r="E380" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F380" s="96" t="s">
+      <c r="F380" s="87" t="s">
         <v>513</v>
       </c>
-      <c r="G380" s="96" t="s">
+      <c r="G380" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="H380" s="107" t="s">
+      <c r="H380" s="106" t="s">
         <v>28</v>
       </c>
       <c r="I380" s="109" t="s">
@@ -24266,96 +24266,96 @@
       </c>
     </row>
     <row r="381" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B381" s="98"/>
+      <c r="B381" s="94"/>
       <c r="C381" s="95"/>
-      <c r="D381" s="96"/>
+      <c r="D381" s="87"/>
       <c r="E381" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F381" s="96"/>
-      <c r="G381" s="96"/>
-      <c r="H381" s="107"/>
+      <c r="F381" s="87"/>
+      <c r="G381" s="87"/>
+      <c r="H381" s="106"/>
       <c r="I381" s="109"/>
     </row>
     <row r="382" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B382" s="98"/>
+      <c r="B382" s="94"/>
       <c r="C382" s="95"/>
-      <c r="D382" s="96"/>
+      <c r="D382" s="87"/>
       <c r="E382" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F382" s="96"/>
-      <c r="G382" s="96"/>
-      <c r="H382" s="107"/>
+      <c r="F382" s="87"/>
+      <c r="G382" s="87"/>
+      <c r="H382" s="106"/>
       <c r="I382" s="109"/>
     </row>
     <row r="383" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B383" s="98" t="s">
+      <c r="B383" s="94" t="s">
         <v>514</v>
       </c>
-      <c r="C383" s="99" t="s">
+      <c r="C383" s="96" t="s">
         <v>515</v>
       </c>
-      <c r="D383" s="96" t="s">
+      <c r="D383" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="E383" s="96" t="s">
+      <c r="E383" s="87" t="s">
         <v>131</v>
       </c>
       <c r="F383" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G383" s="96" t="s">
+      <c r="G383" s="87" t="s">
         <v>516</v>
       </c>
-      <c r="H383" s="96" t="s">
+      <c r="H383" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="I383" s="97" t="s">
+      <c r="I383" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="384" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B384" s="98"/>
-      <c r="C384" s="99"/>
-      <c r="D384" s="96"/>
-      <c r="E384" s="96"/>
+      <c r="B384" s="94"/>
+      <c r="C384" s="96"/>
+      <c r="D384" s="87"/>
+      <c r="E384" s="87"/>
       <c r="F384" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G384" s="96"/>
-      <c r="H384" s="96"/>
-      <c r="I384" s="97"/>
+      <c r="G384" s="87"/>
+      <c r="H384" s="87"/>
+      <c r="I384" s="100"/>
     </row>
     <row r="385" spans="2:9" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B385" s="98"/>
-      <c r="C385" s="102"/>
-      <c r="D385" s="103"/>
-      <c r="E385" s="103"/>
+      <c r="B385" s="94"/>
+      <c r="C385" s="104"/>
+      <c r="D385" s="102"/>
+      <c r="E385" s="102"/>
       <c r="F385" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G385" s="103"/>
-      <c r="H385" s="103"/>
-      <c r="I385" s="111"/>
+      <c r="G385" s="102"/>
+      <c r="H385" s="102"/>
+      <c r="I385" s="110"/>
     </row>
     <row r="386" spans="2:9" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B386" s="88" t="s">
+      <c r="B386" s="89" t="s">
         <v>517</v>
       </c>
-      <c r="C386" s="88"/>
-      <c r="D386" s="88"/>
-      <c r="E386" s="88"/>
-      <c r="F386" s="88"/>
-      <c r="G386" s="88"/>
-      <c r="H386" s="88"/>
-      <c r="I386" s="88"/>
+      <c r="C386" s="89"/>
+      <c r="D386" s="89"/>
+      <c r="E386" s="89"/>
+      <c r="F386" s="89"/>
+      <c r="G386" s="89"/>
+      <c r="H386" s="89"/>
+      <c r="I386" s="89"/>
     </row>
     <row r="387" spans="2:9" ht="42" customHeight="1">
-      <c r="B387" s="89" t="s">
+      <c r="B387" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C387" s="92" t="s">
+      <c r="C387" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D387" s="10"/>
@@ -24366,8 +24366,8 @@
       <c r="I387" s="11"/>
     </row>
     <row r="388" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B388" s="90"/>
-      <c r="C388" s="93"/>
+      <c r="B388" s="91"/>
+      <c r="C388" s="98"/>
       <c r="D388" s="12" t="s">
         <v>12</v>
       </c>
@@ -24466,7 +24466,7 @@
       </c>
     </row>
     <row r="392" spans="2:9" ht="18" customHeight="1">
-      <c r="B392" s="98" t="s">
+      <c r="B392" s="94" t="s">
         <v>524</v>
       </c>
       <c r="C392" s="95" t="s">
@@ -24484,15 +24484,15 @@
       <c r="G392" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H392" s="96" t="s">
+      <c r="H392" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I392" s="97" t="s">
+      <c r="I392" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="393" spans="2:9" ht="18" customHeight="1">
-      <c r="B393" s="98"/>
+      <c r="B393" s="94"/>
       <c r="C393" s="95"/>
       <c r="D393" s="25" t="s">
         <v>7</v>
@@ -24506,11 +24506,11 @@
       <c r="G393" s="26">
         <v>45294</v>
       </c>
-      <c r="H393" s="96"/>
-      <c r="I393" s="97"/>
+      <c r="H393" s="87"/>
+      <c r="I393" s="100"/>
     </row>
     <row r="394" spans="2:9" ht="18" customHeight="1">
-      <c r="B394" s="98"/>
+      <c r="B394" s="94"/>
       <c r="C394" s="95"/>
       <c r="D394" s="25" t="s">
         <v>43</v>
@@ -24522,29 +24522,29 @@
       <c r="G394" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H394" s="96"/>
-      <c r="I394" s="97"/>
+      <c r="H394" s="87"/>
+      <c r="I394" s="100"/>
     </row>
     <row r="395" spans="2:9" ht="18" customHeight="1">
-      <c r="B395" s="98" t="s">
+      <c r="B395" s="94" t="s">
         <v>528</v>
       </c>
-      <c r="C395" s="99" t="s">
+      <c r="C395" s="96" t="s">
         <v>529</v>
       </c>
-      <c r="D395" s="107" t="s">
+      <c r="D395" s="106" t="s">
         <v>28</v>
       </c>
       <c r="E395" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F395" s="107" t="s">
+      <c r="F395" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="G395" s="107" t="s">
+      <c r="G395" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="H395" s="107" t="s">
+      <c r="H395" s="106" t="s">
         <v>28</v>
       </c>
       <c r="I395" s="109" t="s">
@@ -24552,19 +24552,19 @@
       </c>
     </row>
     <row r="396" spans="2:9" ht="18" customHeight="1">
-      <c r="B396" s="98"/>
-      <c r="C396" s="99"/>
-      <c r="D396" s="107"/>
+      <c r="B396" s="94"/>
+      <c r="C396" s="96"/>
+      <c r="D396" s="106"/>
       <c r="E396" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F396" s="107"/>
-      <c r="G396" s="107"/>
-      <c r="H396" s="107"/>
+      <c r="F396" s="106"/>
+      <c r="G396" s="106"/>
+      <c r="H396" s="106"/>
       <c r="I396" s="109"/>
     </row>
     <row r="397" spans="2:9" ht="18" customHeight="1">
-      <c r="B397" s="98" t="s">
+      <c r="B397" s="94" t="s">
         <v>530</v>
       </c>
       <c r="C397" s="95" t="s">
@@ -24582,15 +24582,15 @@
       <c r="G397" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H397" s="96" t="s">
+      <c r="H397" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I397" s="97" t="s">
+      <c r="I397" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="398" spans="2:9" ht="18" customHeight="1">
-      <c r="B398" s="98"/>
+      <c r="B398" s="94"/>
       <c r="C398" s="95"/>
       <c r="D398" s="25" t="s">
         <v>7</v>
@@ -24604,11 +24604,11 @@
       <c r="G398" s="26">
         <v>45294</v>
       </c>
-      <c r="H398" s="96"/>
-      <c r="I398" s="97"/>
+      <c r="H398" s="87"/>
+      <c r="I398" s="100"/>
     </row>
     <row r="399" spans="2:9" ht="18" customHeight="1">
-      <c r="B399" s="98"/>
+      <c r="B399" s="94"/>
       <c r="C399" s="95"/>
       <c r="D399" s="25" t="s">
         <v>43</v>
@@ -24620,14 +24620,14 @@
       <c r="G399" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H399" s="96"/>
-      <c r="I399" s="97"/>
+      <c r="H399" s="87"/>
+      <c r="I399" s="100"/>
     </row>
     <row r="400" spans="2:9" ht="18" customHeight="1">
-      <c r="B400" s="98" t="s">
+      <c r="B400" s="94" t="s">
         <v>532</v>
       </c>
-      <c r="C400" s="99" t="s">
+      <c r="C400" s="96" t="s">
         <v>533</v>
       </c>
       <c r="D400" s="15" t="s">
@@ -24642,16 +24642,16 @@
       <c r="G400" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H400" s="96" t="s">
+      <c r="H400" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I400" s="97" t="s">
+      <c r="I400" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="401" spans="2:9" ht="18" customHeight="1">
-      <c r="B401" s="98"/>
-      <c r="C401" s="99"/>
+      <c r="B401" s="94"/>
+      <c r="C401" s="96"/>
       <c r="D401" s="25" t="s">
         <v>7</v>
       </c>
@@ -24664,12 +24664,12 @@
       <c r="G401" s="26">
         <v>45294</v>
       </c>
-      <c r="H401" s="96"/>
-      <c r="I401" s="97"/>
+      <c r="H401" s="87"/>
+      <c r="I401" s="100"/>
     </row>
     <row r="402" spans="2:9" ht="18" customHeight="1">
-      <c r="B402" s="98"/>
-      <c r="C402" s="99"/>
+      <c r="B402" s="94"/>
+      <c r="C402" s="96"/>
       <c r="D402" s="25" t="s">
         <v>43</v>
       </c>
@@ -24680,11 +24680,11 @@
       <c r="G402" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H402" s="96"/>
-      <c r="I402" s="97"/>
+      <c r="H402" s="87"/>
+      <c r="I402" s="100"/>
     </row>
     <row r="403" spans="2:9" ht="18" customHeight="1">
-      <c r="B403" s="98" t="s">
+      <c r="B403" s="94" t="s">
         <v>534</v>
       </c>
       <c r="C403" s="95" t="s">
@@ -24702,15 +24702,15 @@
       <c r="G403" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H403" s="96" t="s">
+      <c r="H403" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I403" s="97" t="s">
+      <c r="I403" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="404" spans="2:9" ht="18" customHeight="1">
-      <c r="B404" s="98"/>
+      <c r="B404" s="94"/>
       <c r="C404" s="95"/>
       <c r="D404" s="25" t="s">
         <v>7</v>
@@ -24724,11 +24724,11 @@
       <c r="G404" s="26">
         <v>45294</v>
       </c>
-      <c r="H404" s="96"/>
-      <c r="I404" s="97"/>
+      <c r="H404" s="87"/>
+      <c r="I404" s="100"/>
     </row>
     <row r="405" spans="2:9" ht="18" customHeight="1">
-      <c r="B405" s="98"/>
+      <c r="B405" s="94"/>
       <c r="C405" s="95"/>
       <c r="D405" s="25" t="s">
         <v>43</v>
@@ -24740,14 +24740,14 @@
       <c r="G405" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H405" s="96"/>
-      <c r="I405" s="97"/>
+      <c r="H405" s="87"/>
+      <c r="I405" s="100"/>
     </row>
     <row r="406" spans="2:9" ht="18" customHeight="1">
-      <c r="B406" s="98" t="s">
+      <c r="B406" s="94" t="s">
         <v>536</v>
       </c>
-      <c r="C406" s="99" t="s">
+      <c r="C406" s="96" t="s">
         <v>537</v>
       </c>
       <c r="D406" s="15" t="s">
@@ -24762,16 +24762,16 @@
       <c r="G406" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H406" s="96" t="s">
+      <c r="H406" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I406" s="97" t="s">
+      <c r="I406" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="407" spans="2:9" ht="18" customHeight="1">
-      <c r="B407" s="98"/>
-      <c r="C407" s="99"/>
+      <c r="B407" s="94"/>
+      <c r="C407" s="96"/>
       <c r="D407" s="25" t="s">
         <v>7</v>
       </c>
@@ -24784,12 +24784,12 @@
       <c r="G407" s="26">
         <v>45294</v>
       </c>
-      <c r="H407" s="96"/>
-      <c r="I407" s="97"/>
+      <c r="H407" s="87"/>
+      <c r="I407" s="100"/>
     </row>
     <row r="408" spans="2:9" ht="18" customHeight="1">
-      <c r="B408" s="98"/>
-      <c r="C408" s="99"/>
+      <c r="B408" s="94"/>
+      <c r="C408" s="96"/>
       <c r="D408" s="25" t="s">
         <v>43</v>
       </c>
@@ -24800,11 +24800,11 @@
       <c r="G408" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H408" s="96"/>
-      <c r="I408" s="97"/>
+      <c r="H408" s="87"/>
+      <c r="I408" s="100"/>
     </row>
     <row r="409" spans="2:9" ht="18" customHeight="1">
-      <c r="B409" s="98" t="s">
+      <c r="B409" s="94" t="s">
         <v>538</v>
       </c>
       <c r="C409" s="95" t="s">
@@ -24822,15 +24822,15 @@
       <c r="G409" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H409" s="96" t="s">
+      <c r="H409" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I409" s="97" t="s">
+      <c r="I409" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="410" spans="2:9" ht="18" customHeight="1">
-      <c r="B410" s="98"/>
+      <c r="B410" s="94"/>
       <c r="C410" s="95"/>
       <c r="D410" s="25" t="s">
         <v>7</v>
@@ -24844,11 +24844,11 @@
       <c r="G410" s="26">
         <v>45294</v>
       </c>
-      <c r="H410" s="96"/>
-      <c r="I410" s="97"/>
+      <c r="H410" s="87"/>
+      <c r="I410" s="100"/>
     </row>
     <row r="411" spans="2:9" ht="18" customHeight="1">
-      <c r="B411" s="98"/>
+      <c r="B411" s="94"/>
       <c r="C411" s="95"/>
       <c r="D411" s="25" t="s">
         <v>43</v>
@@ -24860,20 +24860,20 @@
       <c r="G411" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H411" s="96"/>
-      <c r="I411" s="97"/>
+      <c r="H411" s="87"/>
+      <c r="I411" s="100"/>
     </row>
     <row r="412" spans="2:9" ht="18" customHeight="1">
-      <c r="B412" s="98" t="s">
+      <c r="B412" s="94" t="s">
         <v>540</v>
       </c>
-      <c r="C412" s="99" t="s">
+      <c r="C412" s="96" t="s">
         <v>541</v>
       </c>
       <c r="D412" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="E412" s="107" t="s">
+      <c r="E412" s="106" t="s">
         <v>28</v>
       </c>
       <c r="F412" s="15" t="s">
@@ -24882,47 +24882,47 @@
       <c r="G412" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H412" s="96" t="s">
+      <c r="H412" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I412" s="97" t="s">
+      <c r="I412" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="413" spans="2:9" ht="18" customHeight="1">
-      <c r="B413" s="98"/>
-      <c r="C413" s="99"/>
+      <c r="B413" s="94"/>
+      <c r="C413" s="96"/>
       <c r="D413" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E413" s="107"/>
+      <c r="E413" s="106"/>
       <c r="F413" s="25" t="s">
         <v>69</v>
       </c>
       <c r="G413" s="26">
         <v>45294</v>
       </c>
-      <c r="H413" s="96"/>
-      <c r="I413" s="97"/>
+      <c r="H413" s="87"/>
+      <c r="I413" s="100"/>
     </row>
     <row r="414" spans="2:9" ht="18" customHeight="1">
-      <c r="B414" s="98"/>
-      <c r="C414" s="99"/>
+      <c r="B414" s="94"/>
+      <c r="C414" s="96"/>
       <c r="D414" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E414" s="107"/>
+      <c r="E414" s="106"/>
       <c r="F414" s="25" t="s">
         <v>43</v>
       </c>
       <c r="G414" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H414" s="96"/>
-      <c r="I414" s="97"/>
+      <c r="H414" s="87"/>
+      <c r="I414" s="100"/>
     </row>
     <row r="415" spans="2:9" ht="18" customHeight="1">
-      <c r="B415" s="98" t="s">
+      <c r="B415" s="94" t="s">
         <v>542</v>
       </c>
       <c r="C415" s="95" t="s">
@@ -24940,15 +24940,15 @@
       <c r="G415" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H415" s="96" t="s">
+      <c r="H415" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I415" s="97" t="s">
+      <c r="I415" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="416" spans="2:9" ht="18" customHeight="1">
-      <c r="B416" s="98"/>
+      <c r="B416" s="94"/>
       <c r="C416" s="95"/>
       <c r="D416" s="25" t="s">
         <v>7</v>
@@ -24962,11 +24962,11 @@
       <c r="G416" s="26">
         <v>45294</v>
       </c>
-      <c r="H416" s="96"/>
-      <c r="I416" s="97"/>
+      <c r="H416" s="87"/>
+      <c r="I416" s="100"/>
     </row>
     <row r="417" spans="2:9" ht="18" customHeight="1">
-      <c r="B417" s="98"/>
+      <c r="B417" s="94"/>
       <c r="C417" s="95"/>
       <c r="D417" s="25" t="s">
         <v>43</v>
@@ -24978,14 +24978,14 @@
       <c r="G417" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H417" s="96"/>
-      <c r="I417" s="97"/>
+      <c r="H417" s="87"/>
+      <c r="I417" s="100"/>
     </row>
     <row r="418" spans="2:9" ht="18" customHeight="1">
-      <c r="B418" s="98" t="s">
+      <c r="B418" s="94" t="s">
         <v>544</v>
       </c>
-      <c r="C418" s="99" t="s">
+      <c r="C418" s="96" t="s">
         <v>545</v>
       </c>
       <c r="D418" s="15" t="s">
@@ -25000,16 +25000,16 @@
       <c r="G418" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H418" s="96" t="s">
+      <c r="H418" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I418" s="97" t="s">
+      <c r="I418" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="419" spans="2:9" ht="18" customHeight="1">
-      <c r="B419" s="98"/>
-      <c r="C419" s="99"/>
+      <c r="B419" s="94"/>
+      <c r="C419" s="96"/>
       <c r="D419" s="25" t="s">
         <v>7</v>
       </c>
@@ -25022,12 +25022,12 @@
       <c r="G419" s="26">
         <v>45294</v>
       </c>
-      <c r="H419" s="96"/>
-      <c r="I419" s="97"/>
+      <c r="H419" s="87"/>
+      <c r="I419" s="100"/>
     </row>
     <row r="420" spans="2:9" ht="18" customHeight="1">
-      <c r="B420" s="98"/>
-      <c r="C420" s="99"/>
+      <c r="B420" s="94"/>
+      <c r="C420" s="96"/>
       <c r="D420" s="25" t="s">
         <v>43</v>
       </c>
@@ -25038,8 +25038,8 @@
       <c r="G420" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H420" s="96"/>
-      <c r="I420" s="97"/>
+      <c r="H420" s="87"/>
+      <c r="I420" s="100"/>
     </row>
     <row r="421" spans="2:9" ht="18" customHeight="1" thickBot="1">
       <c r="B421" s="54" t="s">
@@ -25068,22 +25068,22 @@
       </c>
     </row>
     <row r="422" spans="2:9" ht="21.75" thickBot="1">
-      <c r="B422" s="88" t="s">
+      <c r="B422" s="89" t="s">
         <v>548</v>
       </c>
-      <c r="C422" s="88"/>
-      <c r="D422" s="88"/>
-      <c r="E422" s="88"/>
-      <c r="F422" s="88"/>
-      <c r="G422" s="88"/>
-      <c r="H422" s="88"/>
-      <c r="I422" s="88"/>
+      <c r="C422" s="89"/>
+      <c r="D422" s="89"/>
+      <c r="E422" s="89"/>
+      <c r="F422" s="89"/>
+      <c r="G422" s="89"/>
+      <c r="H422" s="89"/>
+      <c r="I422" s="89"/>
     </row>
     <row r="423" spans="2:9" ht="45" customHeight="1">
-      <c r="B423" s="89" t="s">
+      <c r="B423" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C423" s="92" t="s">
+      <c r="C423" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D423" s="10"/>
@@ -25094,8 +25094,8 @@
       <c r="I423" s="11"/>
     </row>
     <row r="424" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B424" s="90"/>
-      <c r="C424" s="93"/>
+      <c r="B424" s="91"/>
+      <c r="C424" s="98"/>
       <c r="D424" s="12" t="s">
         <v>12</v>
       </c>
@@ -25272,22 +25272,22 @@
       </c>
     </row>
     <row r="431" spans="2:9" ht="30" customHeight="1" thickBot="1">
-      <c r="B431" s="88" t="s">
+      <c r="B431" s="89" t="s">
         <v>564</v>
       </c>
-      <c r="C431" s="88"/>
-      <c r="D431" s="88"/>
-      <c r="E431" s="88"/>
-      <c r="F431" s="88"/>
-      <c r="G431" s="88"/>
-      <c r="H431" s="88"/>
-      <c r="I431" s="88"/>
+      <c r="C431" s="89"/>
+      <c r="D431" s="89"/>
+      <c r="E431" s="89"/>
+      <c r="F431" s="89"/>
+      <c r="G431" s="89"/>
+      <c r="H431" s="89"/>
+      <c r="I431" s="89"/>
     </row>
     <row r="432" spans="2:9" ht="43.5" customHeight="1">
-      <c r="B432" s="89" t="s">
+      <c r="B432" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C432" s="92" t="s">
+      <c r="C432" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D432" s="10"/>
@@ -25298,8 +25298,8 @@
       <c r="I432" s="11"/>
     </row>
     <row r="433" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B433" s="90"/>
-      <c r="C433" s="93"/>
+      <c r="B433" s="91"/>
+      <c r="C433" s="98"/>
       <c r="D433" s="12" t="s">
         <v>12</v>
       </c>
@@ -25320,16 +25320,16 @@
       </c>
     </row>
     <row r="434" spans="2:9" ht="18" customHeight="1">
-      <c r="B434" s="98" t="s">
+      <c r="B434" s="94" t="s">
         <v>565</v>
       </c>
-      <c r="C434" s="99" t="s">
+      <c r="C434" s="96" t="s">
         <v>566</v>
       </c>
       <c r="D434" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E434" s="96" t="s">
+      <c r="E434" s="87" t="s">
         <v>24</v>
       </c>
       <c r="F434" s="25" t="s">
@@ -25338,58 +25338,58 @@
       <c r="G434" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="H434" s="107" t="s">
+      <c r="H434" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="I434" s="114" t="s">
+      <c r="I434" s="115" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="435" spans="2:9">
-      <c r="B435" s="98"/>
-      <c r="C435" s="99"/>
+      <c r="B435" s="94"/>
+      <c r="C435" s="96"/>
       <c r="D435" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E435" s="96"/>
+      <c r="E435" s="87"/>
       <c r="F435" s="25" t="s">
         <v>43</v>
       </c>
       <c r="G435" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="H435" s="107"/>
-      <c r="I435" s="114"/>
+      <c r="H435" s="106"/>
+      <c r="I435" s="115"/>
     </row>
     <row r="436" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B436" s="98"/>
-      <c r="C436" s="102"/>
+      <c r="B436" s="94"/>
+      <c r="C436" s="104"/>
       <c r="D436" s="29"/>
-      <c r="E436" s="103"/>
+      <c r="E436" s="102"/>
       <c r="F436" s="29"/>
       <c r="G436" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H436" s="113"/>
-      <c r="I436" s="115"/>
+      <c r="H436" s="114"/>
+      <c r="I436" s="116"/>
     </row>
     <row r="437" spans="2:9" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B437" s="88" t="s">
+      <c r="B437" s="89" t="s">
         <v>568</v>
       </c>
-      <c r="C437" s="88"/>
-      <c r="D437" s="88"/>
-      <c r="E437" s="88"/>
-      <c r="F437" s="88"/>
-      <c r="G437" s="88"/>
-      <c r="H437" s="88"/>
-      <c r="I437" s="88"/>
+      <c r="C437" s="89"/>
+      <c r="D437" s="89"/>
+      <c r="E437" s="89"/>
+      <c r="F437" s="89"/>
+      <c r="G437" s="89"/>
+      <c r="H437" s="89"/>
+      <c r="I437" s="89"/>
     </row>
     <row r="438" spans="2:9" ht="42" customHeight="1">
-      <c r="B438" s="89" t="s">
+      <c r="B438" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C438" s="92" t="s">
+      <c r="C438" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D438" s="10"/>
@@ -25400,8 +25400,8 @@
       <c r="I438" s="11"/>
     </row>
     <row r="439" spans="2:9">
-      <c r="B439" s="90"/>
-      <c r="C439" s="93"/>
+      <c r="B439" s="91"/>
+      <c r="C439" s="98"/>
       <c r="D439" s="12" t="s">
         <v>12</v>
       </c>
@@ -25454,7 +25454,7 @@
       <c r="C441" s="95" t="s">
         <v>572</v>
       </c>
-      <c r="D441" s="96" t="s">
+      <c r="D441" s="87" t="s">
         <v>573</v>
       </c>
       <c r="E441" s="15" t="s">
@@ -25463,10 +25463,10 @@
       <c r="F441" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="G441" s="112" t="s">
+      <c r="G441" s="113" t="s">
         <v>576</v>
       </c>
-      <c r="H441" s="107" t="s">
+      <c r="H441" s="106" t="s">
         <v>28</v>
       </c>
       <c r="I441" s="109" t="s">
@@ -25476,29 +25476,29 @@
     <row r="442" spans="2:9" ht="20.25" customHeight="1">
       <c r="B442" s="108"/>
       <c r="C442" s="95"/>
-      <c r="D442" s="96"/>
+      <c r="D442" s="87"/>
       <c r="E442" s="25" t="s">
         <v>574</v>
       </c>
       <c r="F442" s="25" t="s">
         <v>575</v>
       </c>
-      <c r="G442" s="112"/>
-      <c r="H442" s="107"/>
+      <c r="G442" s="113"/>
+      <c r="H442" s="106"/>
       <c r="I442" s="109"/>
     </row>
     <row r="443" spans="2:9" ht="20.25" customHeight="1">
       <c r="B443" s="108"/>
       <c r="C443" s="95"/>
-      <c r="D443" s="96"/>
+      <c r="D443" s="87"/>
       <c r="E443" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F443" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G443" s="112"/>
-      <c r="H443" s="107"/>
+      <c r="G443" s="113"/>
+      <c r="H443" s="106"/>
       <c r="I443" s="109"/>
     </row>
     <row r="444" spans="2:9" ht="20.25" customHeight="1">
@@ -25534,19 +25534,19 @@
       <c r="C445" s="95" t="s">
         <v>580</v>
       </c>
-      <c r="D445" s="96" t="s">
+      <c r="D445" s="87" t="s">
         <v>357</v>
       </c>
-      <c r="E445" s="96" t="s">
+      <c r="E445" s="87" t="s">
         <v>453</v>
       </c>
       <c r="F445" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="G445" s="112" t="s">
+      <c r="G445" s="113" t="s">
         <v>288</v>
       </c>
-      <c r="H445" s="107" t="s">
+      <c r="H445" s="106" t="s">
         <v>28</v>
       </c>
       <c r="I445" s="109" t="s">
@@ -25556,47 +25556,47 @@
     <row r="446" spans="2:9" ht="20.25" customHeight="1">
       <c r="B446" s="108"/>
       <c r="C446" s="95"/>
-      <c r="D446" s="96"/>
-      <c r="E446" s="96"/>
+      <c r="D446" s="87"/>
+      <c r="E446" s="87"/>
       <c r="F446" s="50">
         <v>22221</v>
       </c>
-      <c r="G446" s="112"/>
-      <c r="H446" s="107"/>
+      <c r="G446" s="113"/>
+      <c r="H446" s="106"/>
       <c r="I446" s="109"/>
     </row>
     <row r="447" spans="2:9" ht="20.25" customHeight="1">
       <c r="B447" s="108"/>
       <c r="C447" s="95"/>
-      <c r="D447" s="96"/>
-      <c r="E447" s="96"/>
+      <c r="D447" s="87"/>
+      <c r="E447" s="87"/>
       <c r="F447" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G447" s="112"/>
-      <c r="H447" s="107"/>
+      <c r="G447" s="113"/>
+      <c r="H447" s="106"/>
       <c r="I447" s="109"/>
     </row>
     <row r="448" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B448" s="106" t="s">
+      <c r="B448" s="105" t="s">
         <v>581</v>
       </c>
-      <c r="C448" s="99" t="s">
+      <c r="C448" s="96" t="s">
         <v>582</v>
       </c>
-      <c r="D448" s="96" t="s">
+      <c r="D448" s="87" t="s">
         <v>357</v>
       </c>
-      <c r="E448" s="96" t="s">
+      <c r="E448" s="87" t="s">
         <v>453</v>
       </c>
       <c r="F448" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="G448" s="107" t="s">
+      <c r="G448" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="H448" s="107" t="s">
+      <c r="H448" s="106" t="s">
         <v>28</v>
       </c>
       <c r="I448" s="109" t="s">
@@ -25604,46 +25604,46 @@
       </c>
     </row>
     <row r="449" spans="2:9" ht="20.25" customHeight="1">
-      <c r="B449" s="106"/>
-      <c r="C449" s="99"/>
-      <c r="D449" s="96"/>
-      <c r="E449" s="96"/>
+      <c r="B449" s="105"/>
+      <c r="C449" s="96"/>
+      <c r="D449" s="87"/>
+      <c r="E449" s="87"/>
       <c r="F449" s="50">
         <v>22221</v>
       </c>
-      <c r="G449" s="107"/>
-      <c r="H449" s="107"/>
+      <c r="G449" s="106"/>
+      <c r="H449" s="106"/>
       <c r="I449" s="109"/>
     </row>
     <row r="450" spans="2:9" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B450" s="118"/>
-      <c r="C450" s="102"/>
-      <c r="D450" s="103"/>
-      <c r="E450" s="103"/>
+      <c r="B450" s="119"/>
+      <c r="C450" s="104"/>
+      <c r="D450" s="102"/>
+      <c r="E450" s="102"/>
       <c r="F450" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G450" s="113"/>
-      <c r="H450" s="113"/>
-      <c r="I450" s="116"/>
+      <c r="G450" s="114"/>
+      <c r="H450" s="114"/>
+      <c r="I450" s="117"/>
     </row>
     <row r="451" spans="2:9" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B451" s="87" t="s">
+      <c r="B451" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="C451" s="87"/>
-      <c r="D451" s="87"/>
-      <c r="E451" s="87"/>
-      <c r="F451" s="87"/>
-      <c r="G451" s="87"/>
-      <c r="H451" s="87"/>
-      <c r="I451" s="87"/>
+      <c r="C451" s="88"/>
+      <c r="D451" s="88"/>
+      <c r="E451" s="88"/>
+      <c r="F451" s="88"/>
+      <c r="G451" s="88"/>
+      <c r="H451" s="88"/>
+      <c r="I451" s="88"/>
     </row>
     <row r="452" spans="2:9" ht="43.5" customHeight="1">
-      <c r="B452" s="89" t="s">
+      <c r="B452" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C452" s="92" t="s">
+      <c r="C452" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D452" s="10"/>
@@ -25654,8 +25654,8 @@
       <c r="I452" s="11"/>
     </row>
     <row r="453" spans="2:9">
-      <c r="B453" s="90"/>
-      <c r="C453" s="93"/>
+      <c r="B453" s="91"/>
+      <c r="C453" s="98"/>
       <c r="D453" s="12" t="s">
         <v>12</v>
       </c>
@@ -25708,19 +25708,19 @@
       <c r="C455" s="95" t="s">
         <v>587</v>
       </c>
-      <c r="D455" s="96" t="s">
+      <c r="D455" s="87" t="s">
         <v>588</v>
       </c>
-      <c r="E455" s="96" t="s">
+      <c r="E455" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="F455" s="96" t="s">
+      <c r="F455" s="87" t="s">
         <v>69</v>
       </c>
       <c r="G455" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="H455" s="107" t="s">
+      <c r="H455" s="106" t="s">
         <v>28</v>
       </c>
       <c r="I455" s="109" t="s">
@@ -25728,34 +25728,34 @@
       </c>
     </row>
     <row r="456" spans="2:9" ht="21" customHeight="1" thickBot="1">
-      <c r="B456" s="117"/>
-      <c r="C456" s="105"/>
-      <c r="D456" s="103"/>
-      <c r="E456" s="103"/>
-      <c r="F456" s="103"/>
+      <c r="B456" s="118"/>
+      <c r="C456" s="107"/>
+      <c r="D456" s="102"/>
+      <c r="E456" s="102"/>
+      <c r="F456" s="102"/>
       <c r="G456" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H456" s="113"/>
-      <c r="I456" s="116"/>
+      <c r="H456" s="114"/>
+      <c r="I456" s="117"/>
     </row>
     <row r="457" spans="2:9" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B457" s="87" t="s">
+      <c r="B457" s="88" t="s">
         <v>589</v>
       </c>
-      <c r="C457" s="87"/>
-      <c r="D457" s="87"/>
-      <c r="E457" s="87"/>
-      <c r="F457" s="87"/>
-      <c r="G457" s="87"/>
-      <c r="H457" s="87"/>
-      <c r="I457" s="87"/>
+      <c r="C457" s="88"/>
+      <c r="D457" s="88"/>
+      <c r="E457" s="88"/>
+      <c r="F457" s="88"/>
+      <c r="G457" s="88"/>
+      <c r="H457" s="88"/>
+      <c r="I457" s="88"/>
     </row>
     <row r="458" spans="2:9" ht="40.5" customHeight="1">
-      <c r="B458" s="89" t="s">
+      <c r="B458" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C458" s="92" t="s">
+      <c r="C458" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D458" s="10"/>
@@ -25766,8 +25766,8 @@
       <c r="I458" s="11"/>
     </row>
     <row r="459" spans="2:9">
-      <c r="B459" s="90"/>
-      <c r="C459" s="93"/>
+      <c r="B459" s="91"/>
+      <c r="C459" s="98"/>
       <c r="D459" s="12" t="s">
         <v>12</v>
       </c>
@@ -26152,22 +26152,22 @@
       </c>
     </row>
     <row r="474" spans="2:9" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B474" s="87" t="s">
+      <c r="B474" s="88" t="s">
         <v>618</v>
       </c>
-      <c r="C474" s="87"/>
-      <c r="D474" s="87"/>
-      <c r="E474" s="87"/>
-      <c r="F474" s="87"/>
-      <c r="G474" s="87"/>
-      <c r="H474" s="87"/>
-      <c r="I474" s="87"/>
+      <c r="C474" s="88"/>
+      <c r="D474" s="88"/>
+      <c r="E474" s="88"/>
+      <c r="F474" s="88"/>
+      <c r="G474" s="88"/>
+      <c r="H474" s="88"/>
+      <c r="I474" s="88"/>
     </row>
     <row r="475" spans="2:9" ht="39" customHeight="1">
-      <c r="B475" s="89" t="s">
+      <c r="B475" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C475" s="92" t="s">
+      <c r="C475" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D475" s="10"/>
@@ -26178,8 +26178,8 @@
       <c r="I475" s="11"/>
     </row>
     <row r="476" spans="2:9">
-      <c r="B476" s="90"/>
-      <c r="C476" s="93"/>
+      <c r="B476" s="91"/>
+      <c r="C476" s="98"/>
       <c r="D476" s="12" t="s">
         <v>12</v>
       </c>
@@ -26304,22 +26304,22 @@
       </c>
     </row>
     <row r="481" spans="2:9" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B481" s="87" t="s">
+      <c r="B481" s="88" t="s">
         <v>627</v>
       </c>
-      <c r="C481" s="87"/>
-      <c r="D481" s="87"/>
-      <c r="E481" s="87"/>
-      <c r="F481" s="87"/>
-      <c r="G481" s="87"/>
-      <c r="H481" s="87"/>
-      <c r="I481" s="87"/>
+      <c r="C481" s="88"/>
+      <c r="D481" s="88"/>
+      <c r="E481" s="88"/>
+      <c r="F481" s="88"/>
+      <c r="G481" s="88"/>
+      <c r="H481" s="88"/>
+      <c r="I481" s="88"/>
     </row>
     <row r="482" spans="2:9" ht="46.5" customHeight="1">
-      <c r="B482" s="89" t="s">
+      <c r="B482" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C482" s="92" t="s">
+      <c r="C482" s="97" t="s">
         <v>11</v>
       </c>
       <c r="D482" s="10"/>
@@ -26330,8 +26330,8 @@
       <c r="I482" s="11"/>
     </row>
     <row r="483" spans="2:9">
-      <c r="B483" s="90"/>
-      <c r="C483" s="93"/>
+      <c r="B483" s="91"/>
+      <c r="C483" s="98"/>
       <c r="D483" s="12" t="s">
         <v>12</v>
       </c>
@@ -26422,6 +26422,13 @@
     <mergeCell ref="E305:E307"/>
     <mergeCell ref="H305:H307"/>
     <mergeCell ref="I305:I307"/>
+    <mergeCell ref="B318:B320"/>
+    <mergeCell ref="C318:C320"/>
+    <mergeCell ref="E318:E320"/>
+    <mergeCell ref="I318:I320"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="B315:B317"/>
     <mergeCell ref="B458:B459"/>
     <mergeCell ref="C458:C459"/>
     <mergeCell ref="B475:B476"/>
@@ -26526,6 +26533,7 @@
     <mergeCell ref="E383:E385"/>
     <mergeCell ref="G383:G385"/>
     <mergeCell ref="H383:H385"/>
+    <mergeCell ref="B386:I386"/>
     <mergeCell ref="I369:I371"/>
     <mergeCell ref="B380:B382"/>
     <mergeCell ref="C380:C382"/>
@@ -26589,13 +26597,6 @@
     <mergeCell ref="C336:C338"/>
     <mergeCell ref="H336:H338"/>
     <mergeCell ref="I336:I338"/>
-    <mergeCell ref="B318:B320"/>
-    <mergeCell ref="C318:C320"/>
-    <mergeCell ref="E318:E320"/>
-    <mergeCell ref="I318:I320"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="C312:C313"/>
-    <mergeCell ref="B315:B317"/>
     <mergeCell ref="C315:C317"/>
     <mergeCell ref="E315:E317"/>
     <mergeCell ref="G315:G317"/>
@@ -26728,6 +26729,7 @@
     <mergeCell ref="E226:E228"/>
     <mergeCell ref="F226:F228"/>
     <mergeCell ref="G226:G228"/>
+    <mergeCell ref="E211:E213"/>
     <mergeCell ref="B223:B225"/>
     <mergeCell ref="C223:C225"/>
     <mergeCell ref="D223:D225"/>
@@ -26740,6 +26742,7 @@
     <mergeCell ref="E220:E222"/>
     <mergeCell ref="F220:F222"/>
     <mergeCell ref="G220:G222"/>
+    <mergeCell ref="C202:C204"/>
     <mergeCell ref="B217:B219"/>
     <mergeCell ref="C217:C219"/>
     <mergeCell ref="D217:D219"/>
@@ -26763,7 +26766,7 @@
     <mergeCell ref="B211:B213"/>
     <mergeCell ref="C211:C213"/>
     <mergeCell ref="D211:D213"/>
-    <mergeCell ref="E211:E213"/>
+    <mergeCell ref="D208:D210"/>
     <mergeCell ref="F211:F213"/>
     <mergeCell ref="G211:G213"/>
     <mergeCell ref="B8:B9"/>
@@ -26774,7 +26777,6 @@
     <mergeCell ref="I14:I16"/>
     <mergeCell ref="B182:I182"/>
     <mergeCell ref="B174:I174"/>
-    <mergeCell ref="B386:I386"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="C74:C75"/>
     <mergeCell ref="B98:B99"/>
@@ -26788,7 +26790,7 @@
     <mergeCell ref="D196:D198"/>
     <mergeCell ref="E196:E198"/>
     <mergeCell ref="B202:B204"/>
-    <mergeCell ref="C202:C204"/>
+    <mergeCell ref="E208:E210"/>
     <mergeCell ref="D202:D204"/>
     <mergeCell ref="B474:I474"/>
     <mergeCell ref="B481:I481"/>
@@ -26812,8 +26814,6 @@
     <mergeCell ref="G199:G201"/>
     <mergeCell ref="B208:B210"/>
     <mergeCell ref="C208:C210"/>
-    <mergeCell ref="D208:D210"/>
-    <mergeCell ref="E208:E210"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C127" r:id="rId1" tooltip="CSS свойство float" display="https://basicweb.ru/css/css_pr_float.php"/>
